--- a/resources/tmp/new/results_total.xlsx
+++ b/resources/tmp/new/results_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Github\EscapeRoomsRecSys\resources\tmp\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C9D7EF-BCC7-49AD-80E2-70880C90D323}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41117D71-8727-469D-A39A-E1D8548B72E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7320" xr2:uid="{F1A40890-3388-497D-AEB3-C9D8D38489B9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="185">
   <si>
     <t>alg</t>
   </si>
@@ -68,9 +68,6 @@
     <t>clean_fake_method</t>
   </si>
   <si>
-    <t>(MyMediaLite) UserKNNTrueNo Clean</t>
-  </si>
-  <si>
     <t>No Clean</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>(MyMediaLite) BPRSLIMTrueNo Clean</t>
   </si>
   <si>
-    <t>(MyMediaLite) UserKNNTrueRanked 1 Item</t>
-  </si>
-  <si>
     <t>Ranked 1 Item</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>(MyMediaLite) BPRSLIMTrueRanked 1 Item</t>
   </si>
   <si>
-    <t>(MyMediaLite) UserKNNTrueRanked Only 10</t>
-  </si>
-  <si>
     <t>Ranked Only 10</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>(MyMediaLite) BPRSLIMTrueRanked Only 10</t>
   </si>
   <si>
-    <t>(MyMediaLite) UserKNNFalseNo Clean</t>
-  </si>
-  <si>
     <t>(MyMediaLite) BPRMFFalseNo Clean</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t>(MyMediaLite) BPRSLIMFalseNo Clean</t>
   </si>
   <si>
-    <t>(MyMediaLite) UserKNNFalseRanked 1 Item</t>
-  </si>
-  <si>
     <t>(MyMediaLite) BPRMFFalseRanked 1 Item</t>
   </si>
   <si>
@@ -285,9 +270,6 @@
   </si>
   <si>
     <t>(MyMediaLite) BPRSLIMFalseRanked 1 Item</t>
-  </si>
-  <si>
-    <t>(MyMediaLite) UserKNNFalseRanked Only 10</t>
   </si>
   <si>
     <t>(MyMediaLite) BPRMFFalseRanked Only 10</t>
@@ -990,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE514B7-F3E2-4323-A87D-4A53F414E035}">
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,6137 +1021,5927 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B2">
-        <v>0.56284000000000001</v>
+        <v>0.55291999999999997</v>
       </c>
       <c r="C2">
-        <v>1.5650000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D2">
-        <v>1.5219999999999999E-2</v>
+        <v>1.507E-2</v>
       </c>
       <c r="E2">
-        <v>2.5420000000000002E-2</v>
+        <v>3.5560000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>4.7019999999999999E-2</v>
+        <v>4.8250000000000001E-2</v>
       </c>
       <c r="G2">
-        <v>9.1289999999999996E-2</v>
+        <v>6.701E-2</v>
       </c>
       <c r="H2">
-        <v>4.4549999999999999E-2</v>
+        <v>4.829E-2</v>
       </c>
       <c r="I2">
-        <v>4.2000000000000003E-2</v>
+        <v>5.8569999999999997E-2</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="B3">
-        <v>0.55818000000000001</v>
+        <v>0.55284</v>
       </c>
       <c r="C3">
-        <v>1.4200000000000001E-2</v>
+        <v>1.8839999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>1.435E-2</v>
+        <v>1.507E-2</v>
       </c>
       <c r="E3">
-        <v>2.1260000000000001E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="F3">
-        <v>4.5010000000000001E-2</v>
+        <v>5.0729999999999997E-2</v>
       </c>
       <c r="G3">
-        <v>8.3960000000000007E-2</v>
+        <v>6.701E-2</v>
       </c>
       <c r="H3">
-        <v>3.8859999999999999E-2</v>
+        <v>4.3920000000000001E-2</v>
       </c>
       <c r="I3">
-        <v>2.9919999999999999E-2</v>
+        <v>5.0029999999999998E-2</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="B4">
-        <v>0.55810999999999999</v>
+        <v>0.54959000000000002</v>
       </c>
       <c r="C4">
-        <v>9.2800000000000001E-3</v>
+        <v>1.536E-2</v>
       </c>
       <c r="D4">
-        <v>1.391E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="E4">
-        <v>1.6899999999999998E-2</v>
+        <v>2.911E-2</v>
       </c>
       <c r="F4">
-        <v>3.0329999999999999E-2</v>
+        <v>3.3489999999999999E-2</v>
       </c>
       <c r="G4">
-        <v>8.301E-2</v>
+        <v>5.7149999999999999E-2</v>
       </c>
       <c r="H4">
-        <v>3.5189999999999999E-2</v>
+        <v>4.1320000000000003E-2</v>
       </c>
       <c r="I4">
-        <v>2.41E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B5">
-        <v>0.55418999999999996</v>
+        <v>0.54308000000000001</v>
       </c>
       <c r="C5">
-        <v>9.5700000000000004E-3</v>
+        <v>1.4489999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>1.304E-2</v>
+        <v>1.159E-2</v>
       </c>
       <c r="E5">
-        <v>1.9189999999999999E-2</v>
+        <v>2.818E-2</v>
       </c>
       <c r="F5">
-        <v>2.8649999999999998E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="G5">
-        <v>7.8810000000000005E-2</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="H5">
-        <v>3.5839999999999997E-2</v>
+        <v>3.857E-2</v>
       </c>
       <c r="I5">
-        <v>2.8670000000000001E-2</v>
+        <v>4.1529999999999997E-2</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B6">
-        <v>0.55303999999999998</v>
+        <v>0.56284000000000001</v>
       </c>
       <c r="C6">
-        <v>1.2749999999999999E-2</v>
+        <v>1.5650000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>1.5939999999999999E-2</v>
+        <v>1.5219999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>1.307E-2</v>
+        <v>2.5420000000000002E-2</v>
       </c>
       <c r="F6">
-        <v>2.3650000000000001E-2</v>
+        <v>4.7019999999999999E-2</v>
       </c>
       <c r="G6">
-        <v>6.1769999999999999E-2</v>
+        <v>9.1289999999999996E-2</v>
       </c>
       <c r="H6">
-        <v>2.8930000000000001E-2</v>
+        <v>4.4549999999999999E-2</v>
       </c>
       <c r="I6">
-        <v>2.7949999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B7">
-        <v>0.55298000000000003</v>
+        <v>0.53881000000000001</v>
       </c>
       <c r="C7">
-        <v>1.4200000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>1.5939999999999999E-2</v>
+        <v>1.014E-2</v>
       </c>
       <c r="E7">
-        <v>1.3690000000000001E-2</v>
+        <v>2.181E-2</v>
       </c>
       <c r="F7">
-        <v>2.444E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="G7">
-        <v>6.1769999999999999E-2</v>
+        <v>5.0909999999999997E-2</v>
       </c>
       <c r="H7">
-        <v>2.9860000000000001E-2</v>
+        <v>3.1949999999999999E-2</v>
       </c>
       <c r="I7">
-        <v>3.3770000000000001E-2</v>
+        <v>3.807E-2</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B8">
-        <v>0.55291999999999997</v>
+        <v>0.55818000000000001</v>
       </c>
       <c r="C8">
-        <v>0.02</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>1.507E-2</v>
+        <v>1.435E-2</v>
       </c>
       <c r="E8">
-        <v>3.5560000000000001E-2</v>
+        <v>2.1260000000000001E-2</v>
       </c>
       <c r="F8">
-        <v>4.8250000000000001E-2</v>
+        <v>4.5010000000000001E-2</v>
       </c>
       <c r="G8">
-        <v>6.701E-2</v>
+        <v>8.3960000000000007E-2</v>
       </c>
       <c r="H8">
-        <v>4.829E-2</v>
+        <v>3.8859999999999999E-2</v>
       </c>
       <c r="I8">
-        <v>5.8569999999999997E-2</v>
+        <v>2.9919999999999999E-2</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B9">
-        <v>0.55284</v>
+        <v>0.54310000000000003</v>
       </c>
       <c r="C9">
-        <v>1.8839999999999999E-2</v>
+        <v>1.478E-2</v>
       </c>
       <c r="D9">
-        <v>1.507E-2</v>
+        <v>1.159E-2</v>
       </c>
       <c r="E9">
-        <v>3.0200000000000001E-2</v>
+        <v>2.043E-2</v>
       </c>
       <c r="F9">
-        <v>5.0729999999999997E-2</v>
+        <v>4.0750000000000001E-2</v>
       </c>
       <c r="G9">
-        <v>6.701E-2</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="H9">
-        <v>4.3920000000000001E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="I9">
-        <v>5.0029999999999998E-2</v>
+        <v>3.2829999999999998E-2</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B10">
-        <v>0.55152999999999996</v>
+        <v>0.55112000000000005</v>
       </c>
       <c r="C10">
-        <v>1.4489999999999999E-2</v>
+        <v>1.8550000000000001E-2</v>
       </c>
       <c r="D10">
-        <v>1.507E-2</v>
+        <v>1.464E-2</v>
       </c>
       <c r="E10">
-        <v>1.8180000000000002E-2</v>
+        <v>2.036E-2</v>
       </c>
       <c r="F10">
-        <v>2.843E-2</v>
+        <v>5.219E-2</v>
       </c>
       <c r="G10">
-        <v>5.5199999999999999E-2</v>
+        <v>7.0830000000000004E-2</v>
       </c>
       <c r="H10">
-        <v>3.2070000000000001E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="I10">
-        <v>4.0779999999999997E-2</v>
+        <v>3.1739999999999997E-2</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B11">
-        <v>0.55084999999999995</v>
+        <v>0.5373</v>
       </c>
       <c r="C11">
-        <v>1.072E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D11">
-        <v>1.478E-2</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="E11">
-        <v>1.6559999999999998E-2</v>
+        <v>1.9730000000000001E-2</v>
       </c>
       <c r="F11">
-        <v>2.2710000000000001E-2</v>
+        <v>3.0349999999999999E-2</v>
       </c>
       <c r="G11">
-        <v>5.6390000000000003E-2</v>
+        <v>4.2020000000000002E-2</v>
       </c>
       <c r="H11">
-        <v>2.9790000000000001E-2</v>
+        <v>2.8590000000000001E-2</v>
       </c>
       <c r="I11">
-        <v>2.8199999999999999E-2</v>
+        <v>3.5040000000000002E-2</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12">
-        <v>0.55027999999999999</v>
+        <v>0.55418999999999996</v>
       </c>
       <c r="C12">
-        <v>1.014E-2</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="D12">
-        <v>1.3480000000000001E-2</v>
+        <v>1.304E-2</v>
       </c>
       <c r="E12">
-        <v>1.4E-2</v>
+        <v>1.9189999999999999E-2</v>
       </c>
       <c r="F12">
-        <v>2.4170000000000001E-2</v>
+        <v>2.8649999999999998E-2</v>
       </c>
       <c r="G12">
-        <v>6.1550000000000001E-2</v>
+        <v>7.8810000000000005E-2</v>
       </c>
       <c r="H12">
-        <v>2.86E-2</v>
+        <v>3.5839999999999997E-2</v>
       </c>
       <c r="I12">
-        <v>2.4379999999999999E-2</v>
+        <v>2.8670000000000001E-2</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B13">
-        <v>0.54959000000000002</v>
+        <v>0.54132000000000002</v>
       </c>
       <c r="C13">
-        <v>1.536E-2</v>
+        <v>1.5650000000000001E-2</v>
       </c>
       <c r="D13">
-        <v>1.5509999999999999E-2</v>
+        <v>1.319E-2</v>
       </c>
       <c r="E13">
-        <v>2.911E-2</v>
+        <v>1.916E-2</v>
       </c>
       <c r="F13">
-        <v>3.3489999999999999E-2</v>
+        <v>2.852E-2</v>
       </c>
       <c r="G13">
-        <v>5.7149999999999999E-2</v>
+        <v>4.6089999999999999E-2</v>
       </c>
       <c r="H13">
-        <v>4.1320000000000003E-2</v>
+        <v>3.057E-2</v>
       </c>
       <c r="I13">
-        <v>5.2499999999999998E-2</v>
+        <v>4.1279999999999997E-2</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B14">
-        <v>0.54830999999999996</v>
+        <v>0.54642000000000002</v>
       </c>
       <c r="C14">
-        <v>1.478E-2</v>
+        <v>1.217E-2</v>
       </c>
       <c r="D14">
-        <v>1.4489999999999999E-2</v>
+        <v>1.2749999999999999E-2</v>
       </c>
       <c r="E14">
-        <v>1.8839999999999999E-2</v>
+        <v>1.8960000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>3.1350000000000003E-2</v>
+        <v>2.307E-2</v>
       </c>
       <c r="G14">
-        <v>5.7860000000000002E-2</v>
+        <v>6.0850000000000001E-2</v>
       </c>
       <c r="H14">
-        <v>3.2550000000000003E-2</v>
+        <v>3.2419999999999997E-2</v>
       </c>
       <c r="I14">
-        <v>3.5869999999999999E-2</v>
+        <v>3.4880000000000001E-2</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="B15">
-        <v>0.54701</v>
+        <v>0.54237000000000002</v>
       </c>
       <c r="C15">
-        <v>1.2749999999999999E-2</v>
+        <v>1.159E-2</v>
       </c>
       <c r="D15">
-        <v>1.304E-2</v>
+        <v>1.1010000000000001E-2</v>
       </c>
       <c r="E15">
-        <v>1.251E-2</v>
+        <v>1.8950000000000002E-2</v>
       </c>
       <c r="F15">
-        <v>2.2159999999999999E-2</v>
+        <v>2.8230000000000002E-2</v>
       </c>
       <c r="G15">
-        <v>5.0729999999999997E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="H15">
-        <v>2.5780000000000001E-2</v>
+        <v>3.092E-2</v>
       </c>
       <c r="I15">
-        <v>3.0120000000000001E-2</v>
+        <v>3.5490000000000001E-2</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B16">
-        <v>0.54668000000000005</v>
+        <v>0.54830999999999996</v>
       </c>
       <c r="C16">
-        <v>1.333E-2</v>
+        <v>1.478E-2</v>
       </c>
       <c r="D16">
-        <v>1.4200000000000001E-2</v>
+        <v>1.4489999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>1.4120000000000001E-2</v>
+        <v>1.8839999999999999E-2</v>
       </c>
       <c r="F16">
-        <v>2.1340000000000001E-2</v>
+        <v>3.1350000000000003E-2</v>
       </c>
       <c r="G16">
-        <v>5.2069999999999998E-2</v>
+        <v>5.7860000000000002E-2</v>
       </c>
       <c r="H16">
-        <v>2.7740000000000001E-2</v>
+        <v>3.2550000000000003E-2</v>
       </c>
       <c r="I16">
-        <v>3.347E-2</v>
+        <v>3.5869999999999999E-2</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>0.54652999999999996</v>
+        <v>0.53456999999999999</v>
       </c>
       <c r="C17">
-        <v>1.7389999999999999E-2</v>
+        <v>1.188E-2</v>
       </c>
       <c r="D17">
-        <v>1.2749999999999999E-2</v>
+        <v>1.014E-2</v>
       </c>
       <c r="E17">
-        <v>1.8239999999999999E-2</v>
+        <v>1.8780000000000002E-2</v>
       </c>
       <c r="F17">
-        <v>4.6469999999999997E-2</v>
+        <v>2.9760000000000002E-2</v>
       </c>
       <c r="G17">
-        <v>6.0850000000000001E-2</v>
+        <v>4.1250000000000002E-2</v>
       </c>
       <c r="H17">
-        <v>3.2140000000000002E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I17">
-        <v>3.3029999999999997E-2</v>
+        <v>3.1309999999999998E-2</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B18">
-        <v>0.54642000000000002</v>
+        <v>0.54652999999999996</v>
       </c>
       <c r="C18">
-        <v>1.217E-2</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="D18">
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="E18">
-        <v>1.8960000000000001E-2</v>
+        <v>1.8239999999999999E-2</v>
       </c>
       <c r="F18">
-        <v>2.307E-2</v>
+        <v>4.6469999999999997E-2</v>
       </c>
       <c r="G18">
         <v>6.0850000000000001E-2</v>
       </c>
       <c r="H18">
-        <v>3.2419999999999997E-2</v>
+        <v>3.2140000000000002E-2</v>
       </c>
       <c r="I18">
-        <v>3.4880000000000001E-2</v>
+        <v>3.3029999999999997E-2</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="B19">
-        <v>0.54540999999999995</v>
+        <v>0.55152999999999996</v>
       </c>
       <c r="C19">
-        <v>1.333E-2</v>
+        <v>1.4489999999999999E-2</v>
       </c>
       <c r="D19">
-        <v>1.435E-2</v>
+        <v>1.507E-2</v>
       </c>
       <c r="E19">
-        <v>1.2919999999999999E-2</v>
+        <v>1.8180000000000002E-2</v>
       </c>
       <c r="F19">
-        <v>1.924E-2</v>
+        <v>2.843E-2</v>
       </c>
       <c r="G19">
-        <v>4.8309999999999999E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="H19">
-        <v>2.639E-2</v>
+        <v>3.2070000000000001E-2</v>
       </c>
       <c r="I19">
-        <v>3.5549999999999998E-2</v>
+        <v>4.0779999999999997E-2</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B20">
-        <v>0.54529000000000005</v>
+        <v>0.53878999999999999</v>
       </c>
       <c r="C20">
-        <v>1.362E-2</v>
+        <v>1.478E-2</v>
       </c>
       <c r="D20">
-        <v>1.435E-2</v>
+        <v>1.116E-2</v>
       </c>
       <c r="E20">
-        <v>1.0880000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F20">
-        <v>1.8350000000000002E-2</v>
+        <v>3.7940000000000002E-2</v>
       </c>
       <c r="G20">
-        <v>4.8309999999999999E-2</v>
+        <v>4.7390000000000002E-2</v>
       </c>
       <c r="H20">
-        <v>2.3939999999999999E-2</v>
+        <v>2.8389999999999999E-2</v>
       </c>
       <c r="I20">
-        <v>2.5139999999999999E-2</v>
+        <v>2.8559999999999999E-2</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B21">
-        <v>0.54454000000000002</v>
+        <v>0.53996</v>
       </c>
       <c r="C21">
-        <v>1.1010000000000001E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="D21">
-        <v>1.3480000000000001E-2</v>
+        <v>1.261E-2</v>
       </c>
       <c r="E21">
-        <v>1.102E-2</v>
+        <v>1.7559999999999999E-2</v>
       </c>
       <c r="F21">
-        <v>1.434E-2</v>
+        <v>2.862E-2</v>
       </c>
       <c r="G21">
-        <v>5.3539999999999997E-2</v>
+        <v>4.4269999999999997E-2</v>
       </c>
       <c r="H21">
-        <v>2.4840000000000001E-2</v>
+        <v>2.8139999999999998E-2</v>
       </c>
       <c r="I21">
-        <v>2.537E-2</v>
+        <v>3.4779999999999998E-2</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B22">
-        <v>0.54422000000000004</v>
+        <v>0.55810999999999999</v>
       </c>
       <c r="C22">
-        <v>8.6999999999999994E-3</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="D22">
-        <v>1.3480000000000001E-2</v>
+        <v>1.391E-2</v>
       </c>
       <c r="E22">
-        <v>1.123E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="F22">
-        <v>1.111E-2</v>
+        <v>3.0329999999999999E-2</v>
       </c>
       <c r="G22">
-        <v>5.3539999999999997E-2</v>
+        <v>8.301E-2</v>
       </c>
       <c r="H22">
-        <v>2.479E-2</v>
+        <v>3.5189999999999999E-2</v>
       </c>
       <c r="I22">
-        <v>2.7380000000000002E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B23">
-        <v>0.54310000000000003</v>
+        <v>0.55084999999999995</v>
       </c>
       <c r="C23">
+        <v>1.072E-2</v>
+      </c>
+      <c r="D23">
         <v>1.478E-2</v>
       </c>
-      <c r="D23">
-        <v>1.159E-2</v>
-      </c>
       <c r="E23">
-        <v>2.043E-2</v>
+        <v>1.6559999999999998E-2</v>
       </c>
       <c r="F23">
-        <v>4.0750000000000001E-2</v>
+        <v>2.2710000000000001E-2</v>
       </c>
       <c r="G23">
-        <v>5.7599999999999998E-2</v>
+        <v>5.6390000000000003E-2</v>
       </c>
       <c r="H23">
-        <v>3.2500000000000001E-2</v>
+        <v>2.9790000000000001E-2</v>
       </c>
       <c r="I23">
-        <v>3.2829999999999998E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="B24">
-        <v>0.54308000000000001</v>
+        <v>0.54142999999999997</v>
       </c>
       <c r="C24">
         <v>1.4489999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>1.159E-2</v>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="E24">
-        <v>2.818E-2</v>
+        <v>1.5869999999999999E-2</v>
       </c>
       <c r="F24">
-        <v>4.3400000000000001E-2</v>
+        <v>2.9989999999999999E-2</v>
       </c>
       <c r="G24">
-        <v>5.7599999999999998E-2</v>
+        <v>5.0310000000000001E-2</v>
       </c>
       <c r="H24">
-        <v>3.857E-2</v>
+        <v>2.8070000000000001E-2</v>
       </c>
       <c r="I24">
-        <v>4.1529999999999997E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B25">
-        <v>0.54237000000000002</v>
+        <v>0.53108999999999995</v>
       </c>
       <c r="C25">
-        <v>1.159E-2</v>
+        <v>1.188E-2</v>
       </c>
       <c r="D25">
-        <v>1.1010000000000001E-2</v>
+        <v>8.5500000000000003E-3</v>
       </c>
       <c r="E25">
-        <v>1.8950000000000002E-2</v>
+        <v>1.5709999999999998E-2</v>
       </c>
       <c r="F25">
-        <v>2.8230000000000002E-2</v>
+        <v>3.0689999999999999E-2</v>
       </c>
       <c r="G25">
-        <v>5.3699999999999998E-2</v>
+        <v>3.7449999999999997E-2</v>
       </c>
       <c r="H25">
-        <v>3.092E-2</v>
+        <v>2.3779999999999999E-2</v>
       </c>
       <c r="I25">
-        <v>3.5490000000000001E-2</v>
+        <v>2.5819999999999999E-2</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B26">
-        <v>0.54186999999999996</v>
+        <v>0.54118999999999995</v>
       </c>
       <c r="C26">
-        <v>1.2749999999999999E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D26">
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="E26">
-        <v>1.477E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="F26">
-        <v>2.7459999999999998E-2</v>
+        <v>2.2429999999999999E-2</v>
       </c>
       <c r="G26">
-        <v>4.6850000000000003E-2</v>
+        <v>4.369E-2</v>
       </c>
       <c r="H26">
-        <v>2.6069999999999999E-2</v>
+        <v>2.5780000000000001E-2</v>
       </c>
       <c r="I26">
-        <v>2.6769999999999999E-2</v>
+        <v>2.811E-2</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B27">
-        <v>0.54183999999999999</v>
+        <v>0.55057999999999996</v>
       </c>
       <c r="C27">
-        <v>1.2749999999999999E-2</v>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="D27">
-        <v>1.2030000000000001E-2</v>
+        <v>1.464E-2</v>
       </c>
       <c r="E27">
-        <v>1.341E-2</v>
+        <v>1.537E-2</v>
       </c>
       <c r="F27">
-        <v>2.571E-2</v>
+        <v>3.0870000000000002E-2</v>
       </c>
       <c r="G27">
-        <v>4.725E-2</v>
+        <v>7.0830000000000004E-2</v>
       </c>
       <c r="H27">
-        <v>2.5260000000000001E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="I27">
-        <v>3.041E-2</v>
+        <v>2.6159999999999999E-2</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B28">
-        <v>0.54183000000000003</v>
+        <v>0.53696999999999995</v>
       </c>
       <c r="C28">
-        <v>1.1299999999999999E-2</v>
+        <v>1.333E-2</v>
       </c>
       <c r="D28">
-        <v>1.1299999999999999E-2</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="E28">
-        <v>1.3310000000000001E-2</v>
+        <v>1.521E-2</v>
       </c>
       <c r="F28">
-        <v>2.6579999999999999E-2</v>
+        <v>3.2410000000000001E-2</v>
       </c>
       <c r="G28">
-        <v>5.0619999999999998E-2</v>
+        <v>4.6890000000000001E-2</v>
       </c>
       <c r="H28">
-        <v>2.504E-2</v>
+        <v>2.5870000000000001E-2</v>
       </c>
       <c r="I28">
-        <v>2.418E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B29">
-        <v>0.54147000000000001</v>
+        <v>0.53246000000000004</v>
       </c>
       <c r="C29">
-        <v>1.5650000000000001E-2</v>
+        <v>1.1010000000000001E-2</v>
       </c>
       <c r="D29">
-        <v>1.2460000000000001E-2</v>
+        <v>9.1299999999999992E-3</v>
       </c>
       <c r="E29">
-        <v>1.3939999999999999E-2</v>
+        <v>1.485E-2</v>
       </c>
       <c r="F29">
-        <v>3.4680000000000002E-2</v>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="G29">
-        <v>5.0310000000000001E-2</v>
+        <v>3.7830000000000003E-2</v>
       </c>
       <c r="H29">
-        <v>2.5999999999999999E-2</v>
+        <v>2.3269999999999999E-2</v>
       </c>
       <c r="I29">
-        <v>2.3189999999999999E-2</v>
+        <v>2.664E-2</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.54144000000000003</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.174E-2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.7059999999999999E-2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3.1009999999999999E-2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>4.4490000000000002E-2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>2.7480000000000001E-2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>3.1269999999999999E-2</v>
-      </c>
-      <c r="J30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>12</v>
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30">
+        <v>0.54186999999999996</v>
+      </c>
+      <c r="C30">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.477E-2</v>
+      </c>
+      <c r="F30">
+        <v>2.7459999999999998E-2</v>
+      </c>
+      <c r="G30">
+        <v>4.6850000000000003E-2</v>
+      </c>
+      <c r="H30">
+        <v>2.6069999999999999E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.6769999999999999E-2</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B31">
-        <v>0.54142999999999997</v>
+        <v>0.53107000000000004</v>
       </c>
       <c r="C31">
-        <v>1.4489999999999999E-2</v>
+        <v>1.072E-2</v>
       </c>
       <c r="D31">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="E31">
+        <v>1.464E-2</v>
+      </c>
+      <c r="F31">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="G31">
+        <v>3.7449999999999997E-2</v>
+      </c>
+      <c r="H31">
+        <v>2.281E-2</v>
+      </c>
+      <c r="I31">
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <v>0.53032999999999997</v>
+      </c>
+      <c r="C32">
         <v>1.2460000000000001E-2</v>
       </c>
-      <c r="E31">
-        <v>1.5869999999999999E-2</v>
-      </c>
-      <c r="F31">
-        <v>2.9989999999999999E-2</v>
-      </c>
-      <c r="G31">
-        <v>5.0310000000000001E-2</v>
-      </c>
-      <c r="H31">
-        <v>2.8070000000000001E-2</v>
-      </c>
-      <c r="I31">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.54142999999999997</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.304E-2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.174E-2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.1350000000000001E-2</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2.7119999999999998E-2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>4.4490000000000002E-2</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2.3369999999999998E-2</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2.8969999999999999E-2</v>
-      </c>
-      <c r="J32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>42</v>
+      <c r="D32">
+        <v>0.01</v>
+      </c>
+      <c r="E32">
+        <v>1.456E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.111E-2</v>
+      </c>
+      <c r="G32">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H32">
+        <v>2.239E-2</v>
+      </c>
+      <c r="I32">
+        <v>3.2280000000000003E-2</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>0.54132000000000002</v>
+        <v>0.55056000000000005</v>
       </c>
       <c r="C33">
-        <v>1.5650000000000001E-2</v>
+        <v>9.8600000000000007E-3</v>
       </c>
       <c r="D33">
-        <v>1.319E-2</v>
+        <v>1.464E-2</v>
       </c>
       <c r="E33">
-        <v>1.916E-2</v>
+        <v>1.435E-2</v>
       </c>
       <c r="F33">
-        <v>2.852E-2</v>
+        <v>1.5769999999999999E-2</v>
       </c>
       <c r="G33">
-        <v>4.6089999999999999E-2</v>
+        <v>7.0830000000000004E-2</v>
       </c>
       <c r="H33">
-        <v>3.057E-2</v>
+        <v>3.041E-2</v>
       </c>
       <c r="I33">
-        <v>4.1279999999999997E-2</v>
+        <v>2.5839999999999998E-2</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B34">
-        <v>0.54118999999999995</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="C34">
-        <v>1.1299999999999999E-2</v>
+        <v>1.304E-2</v>
       </c>
       <c r="D34">
-        <v>1.2749999999999999E-2</v>
+        <v>1.145E-2</v>
       </c>
       <c r="E34">
-        <v>1.54E-2</v>
+        <v>1.4319999999999999E-2</v>
       </c>
       <c r="F34">
-        <v>2.2429999999999999E-2</v>
+        <v>2.1950000000000001E-2</v>
       </c>
       <c r="G34">
-        <v>4.369E-2</v>
+        <v>3.6650000000000002E-2</v>
       </c>
       <c r="H34">
-        <v>2.5780000000000001E-2</v>
+        <v>2.419E-2</v>
       </c>
       <c r="I34">
-        <v>2.811E-2</v>
+        <v>3.356E-2</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B35">
-        <v>0.53996</v>
+        <v>0.54668000000000005</v>
       </c>
       <c r="C35">
+        <v>1.333E-2</v>
+      </c>
+      <c r="D35">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="D35">
-        <v>1.261E-2</v>
-      </c>
       <c r="E35">
-        <v>1.7559999999999999E-2</v>
+        <v>1.4120000000000001E-2</v>
       </c>
       <c r="F35">
-        <v>2.862E-2</v>
+        <v>2.1340000000000001E-2</v>
       </c>
       <c r="G35">
-        <v>4.4269999999999997E-2</v>
+        <v>5.2069999999999998E-2</v>
       </c>
       <c r="H35">
-        <v>2.8139999999999998E-2</v>
+        <v>2.7740000000000001E-2</v>
       </c>
       <c r="I35">
-        <v>3.4779999999999998E-2</v>
+        <v>3.347E-2</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B36">
-        <v>0.53947999999999996</v>
+        <v>0.55027999999999999</v>
       </c>
       <c r="C36">
-        <v>6.96E-3</v>
+        <v>1.014E-2</v>
       </c>
       <c r="D36">
-        <v>1.116E-2</v>
+        <v>1.3480000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>9.0600000000000003E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F36">
-        <v>1.1560000000000001E-2</v>
+        <v>2.4170000000000001E-2</v>
       </c>
       <c r="G36">
-        <v>4.6890000000000001E-2</v>
+        <v>6.1550000000000001E-2</v>
       </c>
       <c r="H36">
-        <v>2.1000000000000001E-2</v>
+        <v>2.86E-2</v>
       </c>
       <c r="I36">
-        <v>2.3550000000000001E-2</v>
+        <v>2.4379999999999999E-2</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.53913999999999995</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.043E-2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.159E-2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.374E-2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.5640000000000001E-2</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3.9609999999999999E-2</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2.4029999999999999E-2</v>
-      </c>
-      <c r="I37" s="1">
-        <v>3.3270000000000001E-2</v>
-      </c>
-      <c r="J37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>27</v>
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37">
+        <v>0.54147000000000001</v>
+      </c>
+      <c r="C37">
+        <v>1.5650000000000001E-2</v>
+      </c>
+      <c r="D37">
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.3939999999999999E-2</v>
+      </c>
+      <c r="F37">
+        <v>3.4680000000000002E-2</v>
+      </c>
+      <c r="G37">
+        <v>5.0310000000000001E-2</v>
+      </c>
+      <c r="H37">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I37">
+        <v>2.3189999999999999E-2</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B38">
-        <v>0.53907000000000005</v>
+        <v>0.53530999999999995</v>
       </c>
       <c r="C38">
-        <v>7.2500000000000004E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="D38">
-        <v>1.2030000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E38">
-        <v>8.7100000000000007E-3</v>
+        <v>1.3809999999999999E-2</v>
       </c>
       <c r="F38">
-        <v>1.145E-2</v>
+        <v>3.8289999999999998E-2</v>
       </c>
       <c r="G38">
-        <v>3.9140000000000001E-2</v>
+        <v>4.4130000000000003E-2</v>
       </c>
       <c r="H38">
-        <v>1.9300000000000001E-2</v>
+        <v>2.3740000000000001E-2</v>
       </c>
       <c r="I38">
-        <v>1.8089999999999998E-2</v>
+        <v>2.1270000000000001E-2</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B39">
-        <v>0.53881000000000001</v>
+        <v>0.55298000000000003</v>
       </c>
       <c r="C39">
-        <v>1.1299999999999999E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="D39">
-        <v>1.014E-2</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="E39">
-        <v>2.181E-2</v>
+        <v>1.3690000000000001E-2</v>
       </c>
       <c r="F39">
-        <v>2.7900000000000001E-2</v>
+        <v>2.444E-2</v>
       </c>
       <c r="G39">
-        <v>5.0909999999999997E-2</v>
+        <v>6.1769999999999999E-2</v>
       </c>
       <c r="H39">
-        <v>3.1949999999999999E-2</v>
+        <v>2.9860000000000001E-2</v>
       </c>
       <c r="I39">
-        <v>3.807E-2</v>
+        <v>3.3770000000000001E-2</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B40">
-        <v>0.53878999999999999</v>
+        <v>0.54183999999999999</v>
       </c>
       <c r="C40">
-        <v>1.478E-2</v>
+        <v>1.2749999999999999E-2</v>
       </c>
       <c r="D40">
-        <v>1.116E-2</v>
+        <v>1.2030000000000001E-2</v>
       </c>
       <c r="E40">
-        <v>1.7999999999999999E-2</v>
+        <v>1.341E-2</v>
       </c>
       <c r="F40">
-        <v>3.7940000000000002E-2</v>
+        <v>2.571E-2</v>
       </c>
       <c r="G40">
-        <v>4.7390000000000002E-2</v>
+        <v>4.725E-2</v>
       </c>
       <c r="H40">
-        <v>2.8389999999999999E-2</v>
+        <v>2.5260000000000001E-2</v>
       </c>
       <c r="I40">
-        <v>2.8559999999999999E-2</v>
+        <v>3.041E-2</v>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B41">
-        <v>0.53852</v>
+        <v>0.54183000000000003</v>
       </c>
       <c r="C41">
-        <v>8.1200000000000005E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D41">
-        <v>1.014E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E41">
-        <v>1.264E-2</v>
+        <v>1.3310000000000001E-2</v>
       </c>
       <c r="F41">
-        <v>2.2200000000000001E-2</v>
+        <v>2.6579999999999999E-2</v>
       </c>
       <c r="G41">
-        <v>5.0909999999999997E-2</v>
+        <v>5.0619999999999998E-2</v>
       </c>
       <c r="H41">
-        <v>2.4119999999999999E-2</v>
+        <v>2.504E-2</v>
       </c>
       <c r="I41">
-        <v>2.2780000000000002E-2</v>
+        <v>2.418E-2</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>0.53839999999999999</v>
+        <v>0.55057999999999996</v>
       </c>
       <c r="C42">
-        <v>1.304E-2</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="D42">
-        <v>1.145E-2</v>
+        <v>1.464E-2</v>
       </c>
       <c r="E42">
-        <v>1.4319999999999999E-2</v>
+        <v>1.3259999999999999E-2</v>
       </c>
       <c r="F42">
-        <v>2.1950000000000001E-2</v>
+        <v>2.026E-2</v>
       </c>
       <c r="G42">
-        <v>3.6650000000000002E-2</v>
+        <v>7.0830000000000004E-2</v>
       </c>
       <c r="H42">
-        <v>2.419E-2</v>
+        <v>2.9649999999999999E-2</v>
       </c>
       <c r="I42">
-        <v>3.356E-2</v>
+        <v>2.4850000000000001E-2</v>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43">
-        <v>0.53818999999999995</v>
-      </c>
-      <c r="C43">
-        <v>7.8300000000000002E-3</v>
-      </c>
-      <c r="D43">
-        <v>1.116E-2</v>
-      </c>
-      <c r="E43">
-        <v>8.5699999999999995E-3</v>
-      </c>
-      <c r="F43">
-        <v>1.0789999999999999E-2</v>
-      </c>
-      <c r="G43">
-        <v>4.7390000000000002E-2</v>
-      </c>
-      <c r="H43">
-        <v>2.036E-2</v>
-      </c>
-      <c r="I43">
-        <v>2.0369999999999999E-2</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.53359999999999996</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.1010000000000001E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.014E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.3140000000000001E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3.1029999999999999E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.1270000000000001E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2.7879999999999999E-2</v>
+      </c>
+      <c r="J43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B44">
-        <v>0.53754999999999997</v>
+        <v>0.55303999999999998</v>
       </c>
       <c r="C44">
-        <v>1.391E-2</v>
+        <v>1.2749999999999999E-2</v>
       </c>
       <c r="D44">
-        <v>1.2749999999999999E-2</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="E44">
-        <v>1.0959999999999999E-2</v>
+        <v>1.307E-2</v>
       </c>
       <c r="F44">
-        <v>1.634E-2</v>
+        <v>2.3650000000000001E-2</v>
       </c>
       <c r="G44">
-        <v>3.9899999999999998E-2</v>
+        <v>6.1769999999999999E-2</v>
       </c>
       <c r="H44">
-        <v>2.1919999999999999E-2</v>
+        <v>2.8930000000000001E-2</v>
       </c>
       <c r="I44">
-        <v>2.6970000000000001E-2</v>
+        <v>2.7949999999999999E-2</v>
       </c>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="B45">
-        <v>0.5373</v>
+        <v>0.54540999999999995</v>
       </c>
       <c r="C45">
-        <v>1.1299999999999999E-2</v>
+        <v>1.333E-2</v>
       </c>
       <c r="D45">
-        <v>9.5700000000000004E-3</v>
+        <v>1.435E-2</v>
       </c>
       <c r="E45">
-        <v>1.9730000000000001E-2</v>
+        <v>1.2919999999999999E-2</v>
       </c>
       <c r="F45">
-        <v>3.0349999999999999E-2</v>
+        <v>1.924E-2</v>
       </c>
       <c r="G45">
-        <v>4.2020000000000002E-2</v>
+        <v>4.8309999999999999E-2</v>
       </c>
       <c r="H45">
-        <v>2.8590000000000001E-2</v>
+        <v>2.639E-2</v>
       </c>
       <c r="I45">
-        <v>3.5040000000000002E-2</v>
+        <v>3.5549999999999998E-2</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B46">
-        <v>0.53678000000000003</v>
+        <v>0.53852</v>
       </c>
       <c r="C46">
-        <v>1.043E-2</v>
+        <v>8.1200000000000005E-3</v>
       </c>
       <c r="D46">
-        <v>1.145E-2</v>
+        <v>1.014E-2</v>
       </c>
       <c r="E46">
-        <v>9.3900000000000008E-3</v>
+        <v>1.264E-2</v>
       </c>
       <c r="F46">
-        <v>1.2239999999999999E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="G46">
-        <v>3.3059999999999999E-2</v>
+        <v>5.0909999999999997E-2</v>
       </c>
       <c r="H46">
-        <v>1.9300000000000001E-2</v>
+        <v>2.4119999999999999E-2</v>
       </c>
       <c r="I46">
-        <v>2.589E-2</v>
+        <v>2.2780000000000002E-2</v>
       </c>
       <c r="J46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B47">
-        <v>0.53620000000000001</v>
+        <v>0.54701</v>
       </c>
       <c r="C47">
-        <v>8.4100000000000008E-3</v>
+        <v>1.2749999999999999E-2</v>
       </c>
       <c r="D47">
-        <v>1.1010000000000001E-2</v>
+        <v>1.304E-2</v>
       </c>
       <c r="E47">
-        <v>9.5999999999999992E-3</v>
+        <v>1.251E-2</v>
       </c>
       <c r="F47">
-        <v>1.1849999999999999E-2</v>
+        <v>2.2159999999999999E-2</v>
       </c>
       <c r="G47">
-        <v>3.703E-2</v>
+        <v>5.0729999999999997E-2</v>
       </c>
       <c r="H47">
-        <v>1.9699999999999999E-2</v>
+        <v>2.5780000000000001E-2</v>
       </c>
       <c r="I47">
-        <v>2.5930000000000002E-2</v>
+        <v>3.0120000000000001E-2</v>
       </c>
       <c r="J47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>0.53615000000000002</v>
+        <v>0.53874999999999995</v>
       </c>
       <c r="C48">
-        <v>1.014E-2</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="D48">
-        <v>1.0869999999999999E-2</v>
+        <v>1.1010000000000001E-2</v>
       </c>
       <c r="E48">
-        <v>8.4600000000000005E-3</v>
+        <v>1.2449999999999999E-2</v>
       </c>
       <c r="F48">
-        <v>1.5520000000000001E-2</v>
+        <v>1.6410000000000001E-2</v>
       </c>
       <c r="G48">
-        <v>3.6229999999999998E-2</v>
+        <v>4.8050000000000002E-2</v>
       </c>
       <c r="H48">
-        <v>1.8540000000000001E-2</v>
+        <v>2.3689999999999999E-2</v>
       </c>
       <c r="I48">
-        <v>2.3060000000000001E-2</v>
+        <v>2.419E-2</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B49">
-        <v>0.53544999999999998</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C49">
-        <v>7.8300000000000002E-3</v>
+        <v>1.159E-2</v>
       </c>
       <c r="D49">
-        <v>9.8600000000000007E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="E49">
-        <v>1.0869999999999999E-2</v>
+        <v>1.206E-2</v>
       </c>
       <c r="F49">
-        <v>1.4250000000000001E-2</v>
+        <v>2.2669999999999999E-2</v>
       </c>
       <c r="G49">
-        <v>4.2599999999999999E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="H49">
-        <v>2.0840000000000001E-2</v>
+        <v>2.051E-2</v>
       </c>
       <c r="I49">
-        <v>2.1600000000000001E-2</v>
+        <v>2.5489999999999999E-2</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="B50">
-        <v>0.53530999999999995</v>
+        <v>0.52732000000000001</v>
       </c>
       <c r="C50">
-        <v>1.4200000000000001E-2</v>
+        <v>6.0899999999999999E-3</v>
       </c>
       <c r="D50">
-        <v>0.01</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="E50">
-        <v>1.3809999999999999E-2</v>
+        <v>1.179E-2</v>
       </c>
       <c r="F50">
-        <v>3.8289999999999998E-2</v>
+        <v>1.8769999999999998E-2</v>
       </c>
       <c r="G50">
-        <v>4.4130000000000003E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="H50">
-        <v>2.3740000000000001E-2</v>
+        <v>1.8519999999999998E-2</v>
       </c>
       <c r="I50">
-        <v>2.1270000000000001E-2</v>
+        <v>1.915E-2</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="B51">
-        <v>0.53513999999999995</v>
+        <v>0.54422000000000004</v>
       </c>
       <c r="C51">
-        <v>1.217E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="D51">
-        <v>0.01</v>
+        <v>1.3480000000000001E-2</v>
       </c>
       <c r="E51">
-        <v>1.048E-2</v>
+        <v>1.123E-2</v>
       </c>
       <c r="F51">
-        <v>3.1539999999999999E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="G51">
-        <v>4.4130000000000003E-2</v>
+        <v>5.3539999999999997E-2</v>
       </c>
       <c r="H51">
-        <v>2.1129999999999999E-2</v>
+        <v>2.479E-2</v>
       </c>
       <c r="I51">
-        <v>2.0539999999999999E-2</v>
+        <v>2.7380000000000002E-2</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0.53503999999999996</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.0290000000000001E-2</v>
-      </c>
-      <c r="E52" s="1">
-        <v>9.1199999999999996E-3</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.5389999999999999E-2</v>
-      </c>
-      <c r="G52" s="1">
-        <v>3.5470000000000002E-2</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.9120000000000002E-2</v>
-      </c>
-      <c r="I52" s="1">
-        <v>2.4989999999999998E-2</v>
-      </c>
-      <c r="J52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>12</v>
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="C52">
+        <v>8.9899999999999997E-3</v>
+      </c>
+      <c r="D52">
+        <v>9.2800000000000001E-3</v>
+      </c>
+      <c r="E52">
+        <v>1.111E-2</v>
+      </c>
+      <c r="F52">
+        <v>1.6240000000000001E-2</v>
+      </c>
+      <c r="G52">
+        <v>2.9489999999999999E-2</v>
+      </c>
+      <c r="H52">
+        <v>1.9029999999999998E-2</v>
+      </c>
+      <c r="I52">
+        <v>2.6870000000000002E-2</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0.53502000000000005</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.043E-2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.0290000000000001E-2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>8.9099999999999995E-3</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.9980000000000001E-2</v>
-      </c>
-      <c r="G53" s="1">
-        <v>3.5470000000000002E-2</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.8960000000000001E-2</v>
-      </c>
-      <c r="I53" s="1">
-        <v>2.4289999999999999E-2</v>
-      </c>
-      <c r="J53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>27</v>
+      <c r="A53" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53">
+        <v>0.54454000000000002</v>
+      </c>
+      <c r="C53">
+        <v>1.1010000000000001E-2</v>
+      </c>
+      <c r="D53">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="E53">
+        <v>1.102E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.434E-2</v>
+      </c>
+      <c r="G53">
+        <v>5.3539999999999997E-2</v>
+      </c>
+      <c r="H53">
+        <v>2.4840000000000001E-2</v>
+      </c>
+      <c r="I53">
+        <v>2.537E-2</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.53491999999999995</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.1010000000000001E-2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.0290000000000001E-2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2.001E-2</v>
-      </c>
-      <c r="G54" s="1">
-        <v>3.5470000000000002E-2</v>
-      </c>
-      <c r="H54" s="1">
-        <v>2.036E-2</v>
-      </c>
-      <c r="I54" s="1">
-        <v>2.4389999999999998E-2</v>
-      </c>
-      <c r="J54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>42</v>
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54">
+        <v>0.53754999999999997</v>
+      </c>
+      <c r="C54">
+        <v>1.391E-2</v>
+      </c>
+      <c r="D54">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="E54">
+        <v>1.0959999999999999E-2</v>
+      </c>
+      <c r="F54">
+        <v>1.634E-2</v>
+      </c>
+      <c r="G54">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.1919999999999999E-2</v>
+      </c>
+      <c r="I54">
+        <v>2.6970000000000001E-2</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="B55">
-        <v>0.53461000000000003</v>
+        <v>0.52292000000000005</v>
       </c>
       <c r="C55">
-        <v>1.014E-2</v>
+        <v>6.96E-3</v>
       </c>
       <c r="D55">
-        <v>1.0869999999999999E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E55">
-        <v>8.9300000000000004E-3</v>
+        <v>1.089E-2</v>
       </c>
       <c r="F55">
-        <v>1.2E-2</v>
+        <v>1.6820000000000002E-2</v>
       </c>
       <c r="G55">
-        <v>3.0540000000000001E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="H55">
-        <v>1.8100000000000002E-2</v>
+        <v>1.6119999999999999E-2</v>
       </c>
       <c r="I55">
-        <v>2.6069999999999999E-2</v>
+        <v>2.147E-2</v>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B56">
-        <v>0.53369999999999995</v>
+        <v>0.54529000000000005</v>
       </c>
       <c r="C56">
-        <v>1.2460000000000001E-2</v>
+        <v>1.362E-2</v>
       </c>
       <c r="D56">
-        <v>1.0869999999999999E-2</v>
+        <v>1.435E-2</v>
       </c>
       <c r="E56">
-        <v>9.7800000000000005E-3</v>
+        <v>1.0880000000000001E-2</v>
       </c>
       <c r="F56">
-        <v>2.2069999999999999E-2</v>
+        <v>1.8350000000000002E-2</v>
       </c>
       <c r="G56">
-        <v>3.6839999999999998E-2</v>
+        <v>4.8309999999999999E-2</v>
       </c>
       <c r="H56">
-        <v>1.9769999999999999E-2</v>
+        <v>2.3939999999999999E-2</v>
       </c>
       <c r="I56">
-        <v>2.1430000000000001E-2</v>
+        <v>2.5139999999999999E-2</v>
       </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B57">
-        <v>0.53369</v>
+        <v>0.53544999999999998</v>
       </c>
       <c r="C57">
-        <v>1.1010000000000001E-2</v>
+        <v>7.8300000000000002E-3</v>
       </c>
       <c r="D57">
-        <v>1.0290000000000001E-2</v>
+        <v>9.8600000000000007E-3</v>
       </c>
       <c r="E57">
-        <v>9.9000000000000008E-3</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="F57">
-        <v>1.7430000000000001E-2</v>
+        <v>1.4250000000000001E-2</v>
       </c>
       <c r="G57">
-        <v>3.4959999999999998E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="H57">
-        <v>1.9550000000000001E-2</v>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="I57">
-        <v>2.4719999999999999E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.53364999999999996</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1.072E-2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1.014E-2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>9.3500000000000007E-3</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1.7250000000000001E-2</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3.1029999999999999E-2</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1.8620000000000001E-2</v>
-      </c>
-      <c r="I58" s="1">
-        <v>2.648E-2</v>
-      </c>
-      <c r="J58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>42</v>
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58">
+        <v>0.53356999999999999</v>
+      </c>
+      <c r="C58">
+        <v>1.188E-2</v>
+      </c>
+      <c r="D58">
+        <v>1.0869999999999999E-2</v>
+      </c>
+      <c r="E58">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="F58">
+        <v>2.213E-2</v>
+      </c>
+      <c r="G58">
+        <v>3.6839999999999998E-2</v>
+      </c>
+      <c r="H58">
+        <v>2.0310000000000002E-2</v>
+      </c>
+      <c r="I58">
+        <v>2.4320000000000001E-2</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B59">
-        <v>0.53356999999999999</v>
+        <v>0.53513999999999995</v>
       </c>
       <c r="C59">
-        <v>1.188E-2</v>
+        <v>1.217E-2</v>
       </c>
       <c r="D59">
-        <v>1.0869999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E59">
-        <v>1.0500000000000001E-2</v>
+        <v>1.048E-2</v>
       </c>
       <c r="F59">
-        <v>2.213E-2</v>
+        <v>3.1539999999999999E-2</v>
       </c>
       <c r="G59">
-        <v>3.6839999999999998E-2</v>
+        <v>4.4130000000000003E-2</v>
       </c>
       <c r="H59">
-        <v>2.0310000000000002E-2</v>
+        <v>2.1129999999999999E-2</v>
       </c>
       <c r="I59">
-        <v>2.4320000000000001E-2</v>
+        <v>2.0539999999999999E-2</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0.53356000000000003</v>
-      </c>
-      <c r="C60" s="1">
-        <v>9.5700000000000004E-3</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1.014E-2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>9.2300000000000004E-3</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1.465E-2</v>
-      </c>
-      <c r="G60" s="1">
-        <v>3.1029999999999999E-2</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1.789E-2</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2.0879999999999999E-2</v>
-      </c>
-      <c r="J60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>12</v>
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>0.53864999999999996</v>
+      </c>
+      <c r="C60">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="D60">
+        <v>1.1010000000000001E-2</v>
+      </c>
+      <c r="E60">
+        <v>1.047E-2</v>
+      </c>
+      <c r="F60">
+        <v>1.473E-2</v>
+      </c>
+      <c r="G60">
+        <v>4.8050000000000002E-2</v>
+      </c>
+      <c r="H60">
+        <v>2.179E-2</v>
+      </c>
+      <c r="I60">
+        <v>1.8620000000000001E-2</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B61">
-        <v>0.53327999999999998</v>
+        <v>0.52293000000000001</v>
       </c>
       <c r="C61">
-        <v>8.6999999999999994E-3</v>
+        <v>7.8300000000000002E-3</v>
       </c>
       <c r="D61">
-        <v>9.4199999999999996E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E61">
-        <v>7.9500000000000005E-3</v>
+        <v>1.042E-2</v>
       </c>
       <c r="F61">
-        <v>1.461E-2</v>
+        <v>1.8679999999999999E-2</v>
       </c>
       <c r="G61">
-        <v>3.4259999999999999E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H61">
-        <v>1.7239999999999998E-2</v>
+        <v>1.635E-2</v>
       </c>
       <c r="I61">
-        <v>2.2259999999999999E-2</v>
+        <v>1.8489999999999999E-2</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B62">
-        <v>0.53300000000000003</v>
+        <v>0.53174999999999994</v>
       </c>
       <c r="C62">
-        <v>1.159E-2</v>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="D62">
-        <v>8.6999999999999994E-3</v>
+        <v>1.0580000000000001E-2</v>
       </c>
       <c r="E62">
-        <v>1.206E-2</v>
+        <v>1.0370000000000001E-2</v>
       </c>
       <c r="F62">
-        <v>2.2669999999999999E-2</v>
+        <v>1.485E-2</v>
       </c>
       <c r="G62">
-        <v>3.3300000000000003E-2</v>
+        <v>3.295E-2</v>
       </c>
       <c r="H62">
-        <v>2.051E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="I62">
-        <v>2.5489999999999999E-2</v>
+        <v>2.5219999999999999E-2</v>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B63">
-        <v>0.53246000000000004</v>
+        <v>0.53459000000000001</v>
       </c>
       <c r="C63">
+        <v>1.159E-2</v>
+      </c>
+      <c r="D63">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="E63">
+        <v>1.0120000000000001E-2</v>
+      </c>
+      <c r="F63">
+        <v>1.9009999999999999E-2</v>
+      </c>
+      <c r="G63">
+        <v>3.6659999999999998E-2</v>
+      </c>
+      <c r="H63">
+        <v>1.9980000000000001E-2</v>
+      </c>
+      <c r="I63">
+        <v>2.5010000000000001E-2</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64">
+        <v>0.52685999999999999</v>
+      </c>
+      <c r="C64">
+        <v>7.5399999999999998E-3</v>
+      </c>
+      <c r="D64">
+        <v>7.5399999999999998E-3</v>
+      </c>
+      <c r="E64">
+        <v>1.009E-2</v>
+      </c>
+      <c r="F64">
+        <v>1.2370000000000001E-2</v>
+      </c>
+      <c r="G64">
+        <v>3.1489999999999997E-2</v>
+      </c>
+      <c r="H64">
+        <v>1.695E-2</v>
+      </c>
+      <c r="I64">
+        <v>1.8290000000000001E-2</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <v>0.53459000000000001</v>
+      </c>
+      <c r="C65">
         <v>1.1010000000000001E-2</v>
       </c>
-      <c r="D63">
-        <v>9.1299999999999992E-3</v>
-      </c>
-      <c r="E63">
-        <v>1.485E-2</v>
-      </c>
-      <c r="F63">
-        <v>2.5649999999999999E-2</v>
-      </c>
-      <c r="G63">
-        <v>3.7830000000000003E-2</v>
-      </c>
-      <c r="H63">
-        <v>2.3269999999999999E-2</v>
-      </c>
-      <c r="I63">
-        <v>2.664E-2</v>
-      </c>
-      <c r="J63" t="b">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0.53242999999999996</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1.043E-2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>9.4199999999999996E-3</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1.391E-2</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2.1389999999999999E-2</v>
-      </c>
-      <c r="G64" s="1">
-        <v>3.3930000000000002E-2</v>
-      </c>
-      <c r="H64" s="1">
-        <v>2.18E-2</v>
-      </c>
-      <c r="I64" s="1">
-        <v>2.5579999999999999E-2</v>
-      </c>
-      <c r="J64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.53234000000000004</v>
-      </c>
-      <c r="C65" s="1">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="D65" s="1">
-        <v>9.4199999999999996E-3</v>
-      </c>
-      <c r="E65" s="1">
-        <v>8.8599999999999998E-3</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1.524E-2</v>
-      </c>
-      <c r="G65" s="1">
-        <v>3.3930000000000002E-2</v>
-      </c>
-      <c r="H65" s="1">
-        <v>1.7940000000000001E-2</v>
-      </c>
-      <c r="I65" s="1">
-        <v>2.3869999999999999E-2</v>
-      </c>
-      <c r="J65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>12</v>
+      <c r="D65">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="E65">
+        <v>1.0070000000000001E-2</v>
+      </c>
+      <c r="F65">
+        <v>1.915E-2</v>
+      </c>
+      <c r="G65">
+        <v>3.6659999999999998E-2</v>
+      </c>
+      <c r="H65">
+        <v>1.983E-2</v>
+      </c>
+      <c r="I65">
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0.53230999999999995</v>
-      </c>
-      <c r="C66" s="1">
-        <v>8.1200000000000005E-3</v>
-      </c>
-      <c r="D66" s="1">
-        <v>9.4199999999999996E-3</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1.193E-2</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1.762E-2</v>
-      </c>
-      <c r="G66" s="1">
-        <v>3.3930000000000002E-2</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1.9859999999999999E-2</v>
-      </c>
-      <c r="I66" s="1">
-        <v>2.1430000000000001E-2</v>
-      </c>
-      <c r="J66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>27</v>
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66">
+        <v>0.52281</v>
+      </c>
+      <c r="C66">
+        <v>5.5100000000000001E-3</v>
+      </c>
+      <c r="D66">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="E66">
+        <v>1.0059999999999999E-2</v>
+      </c>
+      <c r="F66">
+        <v>1.7180000000000001E-2</v>
+      </c>
+      <c r="G66">
+        <v>2.93E-2</v>
+      </c>
+      <c r="H66">
+        <v>1.5869999999999999E-2</v>
+      </c>
+      <c r="I66">
+        <v>1.559E-2</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>0.53174999999999994</v>
+        <v>0.53171999999999997</v>
       </c>
       <c r="C67">
-        <v>8.9899999999999997E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="D67">
-        <v>1.0580000000000001E-2</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="E67">
-        <v>1.0370000000000001E-2</v>
+        <v>9.92E-3</v>
       </c>
       <c r="F67">
-        <v>1.485E-2</v>
+        <v>9.8300000000000002E-3</v>
       </c>
       <c r="G67">
-        <v>3.295E-2</v>
+        <v>3.3989999999999999E-2</v>
       </c>
       <c r="H67">
-        <v>1.9400000000000001E-2</v>
+        <v>1.8259999999999998E-2</v>
       </c>
       <c r="I67">
-        <v>2.5219999999999999E-2</v>
+        <v>2.0789999999999999E-2</v>
       </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B68">
-        <v>0.53108999999999995</v>
+        <v>0.53369</v>
       </c>
       <c r="C68">
-        <v>1.188E-2</v>
+        <v>1.1010000000000001E-2</v>
       </c>
       <c r="D68">
-        <v>8.5500000000000003E-3</v>
+        <v>1.0290000000000001E-2</v>
       </c>
       <c r="E68">
-        <v>1.5709999999999998E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="F68">
-        <v>3.0689999999999999E-2</v>
+        <v>1.7430000000000001E-2</v>
       </c>
       <c r="G68">
-        <v>3.7449999999999997E-2</v>
+        <v>3.4959999999999998E-2</v>
       </c>
       <c r="H68">
-        <v>2.3779999999999999E-2</v>
+        <v>1.9550000000000001E-2</v>
       </c>
       <c r="I68">
-        <v>2.5819999999999999E-2</v>
+        <v>2.4719999999999999E-2</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B69">
-        <v>0.53107000000000004</v>
+        <v>0.53369999999999995</v>
       </c>
       <c r="C69">
-        <v>1.072E-2</v>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="D69">
-        <v>8.5500000000000003E-3</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="E69">
-        <v>1.464E-2</v>
+        <v>9.7800000000000005E-3</v>
       </c>
       <c r="F69">
-        <v>2.4899999999999999E-2</v>
+        <v>2.2069999999999999E-2</v>
       </c>
       <c r="G69">
-        <v>3.7449999999999997E-2</v>
+        <v>3.6839999999999998E-2</v>
       </c>
       <c r="H69">
-        <v>2.281E-2</v>
+        <v>1.9769999999999999E-2</v>
       </c>
       <c r="I69">
-        <v>2.5309999999999999E-2</v>
+        <v>2.1430000000000001E-2</v>
       </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>0.53032999999999997</v>
+        <v>0.53441000000000005</v>
       </c>
       <c r="C70">
-        <v>1.2460000000000001E-2</v>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="D70">
-        <v>0.01</v>
+        <v>9.8600000000000007E-3</v>
       </c>
       <c r="E70">
-        <v>1.456E-2</v>
+        <v>9.7300000000000008E-3</v>
       </c>
       <c r="F70">
-        <v>2.111E-2</v>
+        <v>1.7170000000000001E-2</v>
       </c>
       <c r="G70">
-        <v>2.9600000000000001E-2</v>
+        <v>3.6659999999999998E-2</v>
       </c>
       <c r="H70">
-        <v>2.239E-2</v>
+        <v>1.9449999999999999E-2</v>
       </c>
       <c r="I70">
-        <v>3.2280000000000003E-2</v>
+        <v>2.4629999999999999E-2</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B71">
-        <v>0.52985000000000004</v>
+        <v>0.53620000000000001</v>
       </c>
       <c r="C71">
-        <v>6.0899999999999999E-3</v>
+        <v>8.4100000000000008E-3</v>
       </c>
       <c r="D71">
-        <v>9.2800000000000001E-3</v>
+        <v>1.1010000000000001E-2</v>
       </c>
       <c r="E71">
-        <v>5.8500000000000002E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F71">
-        <v>4.8700000000000002E-3</v>
+        <v>1.1849999999999999E-2</v>
       </c>
       <c r="G71">
-        <v>0.03</v>
+        <v>3.703E-2</v>
       </c>
       <c r="H71">
-        <v>1.4590000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="I71">
-        <v>1.9439999999999999E-2</v>
+        <v>2.5930000000000002E-2</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.52771000000000001</v>
+        <v>0.51961000000000002</v>
       </c>
       <c r="C72">
-        <v>4.9300000000000004E-3</v>
+        <v>8.1200000000000005E-3</v>
       </c>
       <c r="D72">
-        <v>8.4100000000000008E-3</v>
+        <v>6.2300000000000003E-3</v>
       </c>
       <c r="E72">
-        <v>5.8599999999999998E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F72">
-        <v>5.1399999999999996E-3</v>
+        <v>1.661E-2</v>
       </c>
       <c r="G72">
-        <v>2.964E-2</v>
+        <v>2.1360000000000001E-2</v>
       </c>
       <c r="H72">
-        <v>1.3780000000000001E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="I72">
-        <v>1.5970000000000002E-2</v>
+        <v>1.6789999999999999E-2</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B73" s="1">
-        <v>0.52732000000000001</v>
+        <v>0.53359999999999996</v>
       </c>
       <c r="C73" s="1">
-        <v>8.9899999999999997E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D73" s="1">
-        <v>8.8400000000000006E-3</v>
+        <v>1.014E-2</v>
       </c>
       <c r="E73" s="1">
-        <v>5.7999999999999996E-3</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="F73" s="1">
-        <v>1.031E-2</v>
+        <v>1.5980000000000001E-2</v>
       </c>
       <c r="G73" s="1">
-        <v>2.2360000000000001E-2</v>
+        <v>3.1029999999999999E-2</v>
       </c>
       <c r="H73" s="1">
-        <v>1.3050000000000001E-2</v>
+        <v>1.8630000000000001E-2</v>
       </c>
       <c r="I73" s="1">
-        <v>1.7829999999999999E-2</v>
+        <v>2.547E-2</v>
       </c>
       <c r="J73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.52481</v>
+        <v>0.53393999999999997</v>
       </c>
       <c r="C74">
-        <v>4.0600000000000002E-3</v>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="D74">
-        <v>6.0899999999999999E-3</v>
+        <v>9.8600000000000007E-3</v>
       </c>
       <c r="E74">
-        <v>5.2199999999999998E-3</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="F74">
-        <v>8.0999999999999996E-3</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="G74">
-        <v>2.69E-2</v>
+        <v>3.9359999999999999E-2</v>
       </c>
       <c r="H74">
-        <v>1.192E-2</v>
+        <v>1.959E-2</v>
       </c>
       <c r="I74">
-        <v>1.108E-2</v>
+        <v>2.3859999999999999E-2</v>
       </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B75">
-        <v>0.52464</v>
+        <v>0.53678000000000003</v>
       </c>
       <c r="C75">
-        <v>3.7699999999999999E-3</v>
+        <v>1.043E-2</v>
       </c>
       <c r="D75">
-        <v>6.0899999999999999E-3</v>
+        <v>1.145E-2</v>
       </c>
       <c r="E75">
-        <v>6.6299999999999996E-3</v>
+        <v>9.3900000000000008E-3</v>
       </c>
       <c r="F75">
-        <v>6.7400000000000003E-3</v>
+        <v>1.2239999999999999E-2</v>
       </c>
       <c r="G75">
-        <v>2.69E-2</v>
+        <v>3.3059999999999999E-2</v>
       </c>
       <c r="H75">
-        <v>1.319E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="I75">
-        <v>1.4279999999999999E-2</v>
+        <v>2.589E-2</v>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="B76">
-        <v>0.52292000000000005</v>
+        <v>0.53195000000000003</v>
       </c>
       <c r="C76">
-        <v>6.96E-3</v>
+        <v>8.4100000000000008E-3</v>
       </c>
       <c r="D76">
-        <v>5.7999999999999996E-3</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="E76">
-        <v>1.089E-2</v>
+        <v>9.3200000000000002E-3</v>
       </c>
       <c r="F76">
-        <v>1.6820000000000002E-2</v>
+        <v>1.345E-2</v>
       </c>
       <c r="G76">
-        <v>2.443E-2</v>
+        <v>2.9489999999999999E-2</v>
       </c>
       <c r="H76">
-        <v>1.6119999999999999E-2</v>
+        <v>1.7160000000000002E-2</v>
       </c>
       <c r="I76">
-        <v>2.147E-2</v>
+        <v>2.0789999999999999E-2</v>
       </c>
       <c r="J76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0.52253000000000005</v>
-      </c>
-      <c r="C77" s="1">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="D77" s="1">
-        <v>7.2500000000000004E-3</v>
-      </c>
-      <c r="E77" s="1">
-        <v>6.1199999999999996E-3</v>
-      </c>
-      <c r="F77" s="1">
-        <v>8.2299999999999995E-3</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1.7639999999999999E-2</v>
-      </c>
-      <c r="H77" s="1">
-        <v>1.176E-2</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1.6549999999999999E-2</v>
-      </c>
-      <c r="J77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>42</v>
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>0.53173999999999999</v>
+      </c>
+      <c r="C77">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="D77">
+        <v>8.26E-3</v>
+      </c>
+      <c r="E77">
+        <v>9.2800000000000001E-3</v>
+      </c>
+      <c r="F77">
+        <v>1.6029999999999999E-2</v>
+      </c>
+      <c r="G77">
+        <v>3.7859999999999998E-2</v>
+      </c>
+      <c r="H77">
+        <v>1.8089999999999998E-2</v>
+      </c>
+      <c r="I77">
+        <v>1.7979999999999999E-2</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0.52246000000000004</v>
-      </c>
-      <c r="C78" s="1">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="D78" s="1">
-        <v>7.2500000000000004E-3</v>
-      </c>
-      <c r="E78" s="1">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F78" s="1">
-        <v>6.7400000000000003E-3</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1.7639999999999999E-2</v>
-      </c>
-      <c r="H78" s="1">
-        <v>1.235E-2</v>
-      </c>
-      <c r="I78" s="1">
-        <v>2.086E-2</v>
-      </c>
-      <c r="J78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>27</v>
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78">
+        <v>0.53452999999999995</v>
+      </c>
+      <c r="C78">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D78">
+        <v>9.1299999999999992E-3</v>
+      </c>
+      <c r="E78">
+        <v>9.2599999999999991E-3</v>
+      </c>
+      <c r="F78">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="G78">
+        <v>4.02E-2</v>
+      </c>
+      <c r="H78">
+        <v>1.9029999999999998E-2</v>
+      </c>
+      <c r="I78">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0.52242999999999995</v>
-      </c>
-      <c r="C79" s="1">
-        <v>5.2199999999999998E-3</v>
-      </c>
-      <c r="D79" s="1">
-        <v>7.2500000000000004E-3</v>
-      </c>
-      <c r="E79" s="1">
-        <v>4.45E-3</v>
-      </c>
-      <c r="F79" s="1">
-        <v>4.7600000000000003E-3</v>
-      </c>
-      <c r="G79" s="1">
-        <v>1.7639999999999999E-2</v>
-      </c>
-      <c r="H79" s="1">
-        <v>1.023E-2</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1.355E-2</v>
-      </c>
-      <c r="J79" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>12</v>
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79">
+        <v>0.52732000000000001</v>
+      </c>
+      <c r="C79">
+        <v>7.5399999999999998E-3</v>
+      </c>
+      <c r="D79">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="E79">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="F79">
+        <v>1.6140000000000002E-2</v>
+      </c>
+      <c r="G79">
+        <v>2.8420000000000001E-2</v>
+      </c>
+      <c r="H79">
+        <v>1.6039999999999999E-2</v>
+      </c>
+      <c r="I79">
+        <v>1.7760000000000001E-2</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B80">
-        <v>0.5222</v>
+        <v>0.53507000000000005</v>
       </c>
       <c r="C80">
-        <v>6.96E-3</v>
+        <v>8.1200000000000005E-3</v>
       </c>
       <c r="D80">
-        <v>4.9300000000000004E-3</v>
+        <v>1.072E-2</v>
       </c>
       <c r="E80">
-        <v>7.6099999999999996E-3</v>
+        <v>9.1900000000000003E-3</v>
       </c>
       <c r="F80">
-        <v>1.371E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="G80">
-        <v>2.299E-2</v>
+        <v>3.8219999999999997E-2</v>
       </c>
       <c r="H80">
-        <v>1.358E-2</v>
+        <v>1.898E-2</v>
       </c>
       <c r="I80">
-        <v>2.3060000000000001E-2</v>
+        <v>2.0809999999999999E-2</v>
       </c>
       <c r="J80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="B81">
-        <v>0.52202000000000004</v>
+        <v>0.52078999999999998</v>
       </c>
       <c r="C81">
-        <v>5.5100000000000001E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="D81">
         <v>4.9300000000000004E-3</v>
       </c>
       <c r="E81">
-        <v>8.4600000000000005E-3</v>
+        <v>9.1299999999999992E-3</v>
       </c>
       <c r="F81">
-        <v>1.3780000000000001E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G81">
-        <v>2.299E-2</v>
+        <v>2.7519999999999999E-2</v>
       </c>
       <c r="H81">
-        <v>1.3390000000000001E-2</v>
+        <v>1.4449999999999999E-2</v>
       </c>
       <c r="I81">
-        <v>1.4460000000000001E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82">
-        <v>0.52176</v>
-      </c>
-      <c r="C82">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D82">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="E82">
-        <v>8.2299999999999995E-3</v>
-      </c>
-      <c r="F82">
-        <v>1.4030000000000001E-2</v>
-      </c>
-      <c r="G82">
-        <v>2.487E-2</v>
-      </c>
-      <c r="H82">
-        <v>1.3780000000000001E-2</v>
-      </c>
-      <c r="I82">
-        <v>1.495E-2</v>
-      </c>
-      <c r="J82" t="b">
-        <v>1</v>
-      </c>
-      <c r="K82" t="s">
-        <v>27</v>
+      <c r="A82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.52749000000000001</v>
+      </c>
+      <c r="C82" s="1">
+        <v>9.5700000000000004E-3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8.8400000000000006E-3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>9.0699999999999999E-3</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.5310000000000001E-2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2.2360000000000001E-2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1.6049999999999998E-2</v>
+      </c>
+      <c r="I82" s="1">
+        <v>2.3349999999999999E-2</v>
+      </c>
+      <c r="J82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B83">
-        <v>0.52168999999999999</v>
+        <v>0.53947999999999996</v>
       </c>
       <c r="C83">
-        <v>7.2500000000000004E-3</v>
+        <v>6.96E-3</v>
       </c>
       <c r="D83">
-        <v>5.6499999999999996E-3</v>
+        <v>1.116E-2</v>
       </c>
       <c r="E83">
-        <v>8.7600000000000004E-3</v>
+        <v>9.0600000000000003E-3</v>
       </c>
       <c r="F83">
-        <v>1.44E-2</v>
+        <v>1.1560000000000001E-2</v>
       </c>
       <c r="G83">
-        <v>2.3E-2</v>
+        <v>4.6890000000000001E-2</v>
       </c>
       <c r="H83">
-        <v>1.417E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I83">
-        <v>2.0310000000000002E-2</v>
+        <v>2.3550000000000001E-2</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B84">
-        <v>0.52164999999999995</v>
+        <v>0.52739000000000003</v>
       </c>
       <c r="C84">
-        <v>6.6699999999999997E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="D84">
-        <v>5.6499999999999996E-3</v>
+        <v>7.6800000000000002E-3</v>
       </c>
       <c r="E84">
-        <v>8.0999999999999996E-3</v>
+        <v>9.0600000000000003E-3</v>
       </c>
       <c r="F84">
-        <v>1.116E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="G84">
-        <v>2.3E-2</v>
+        <v>2.8420000000000001E-2</v>
       </c>
       <c r="H84">
-        <v>1.3639999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I84">
-        <v>1.942E-2</v>
+        <v>1.908E-2</v>
       </c>
       <c r="J84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B85">
-        <v>0.52141000000000004</v>
+        <v>0.53454999999999997</v>
       </c>
       <c r="C85">
-        <v>4.64E-3</v>
+        <v>7.8300000000000002E-3</v>
       </c>
       <c r="D85">
-        <v>5.5100000000000001E-3</v>
+        <v>1.1010000000000001E-2</v>
       </c>
       <c r="E85">
-        <v>5.7600000000000004E-3</v>
+        <v>8.9599999999999992E-3</v>
       </c>
       <c r="F85">
-        <v>9.1800000000000007E-3</v>
+        <v>1.3089999999999999E-2</v>
       </c>
       <c r="G85">
-        <v>2.3300000000000001E-2</v>
+        <v>4.3909999999999998E-2</v>
       </c>
       <c r="H85">
-        <v>1.128E-2</v>
+        <v>1.985E-2</v>
       </c>
       <c r="I85">
-        <v>1.265E-2</v>
+        <v>1.9019999999999999E-2</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B86">
-        <v>0.52127999999999997</v>
+        <v>0.53461000000000003</v>
       </c>
       <c r="C86">
-        <v>5.7999999999999996E-3</v>
+        <v>1.014E-2</v>
       </c>
       <c r="D86">
-        <v>5.94E-3</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="E86">
-        <v>6.4099999999999999E-3</v>
+        <v>8.9300000000000004E-3</v>
       </c>
       <c r="F86">
-        <v>7.0899999999999999E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G86">
-        <v>1.6049999999999998E-2</v>
+        <v>3.0540000000000001E-2</v>
       </c>
       <c r="H86">
-        <v>1.221E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="I86">
-        <v>2.332E-2</v>
+        <v>2.6069999999999999E-2</v>
       </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B87">
-        <v>0.52122000000000002</v>
+        <v>0.52734000000000003</v>
       </c>
       <c r="C87">
-        <v>6.0899999999999999E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="D87">
-        <v>5.5100000000000001E-3</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="E87">
-        <v>8.5199999999999998E-3</v>
+        <v>8.9300000000000004E-3</v>
       </c>
       <c r="F87">
-        <v>1.1560000000000001E-2</v>
+        <v>1.538E-2</v>
       </c>
       <c r="G87">
-        <v>2.3570000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="H87">
-        <v>1.397E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="I87">
-        <v>1.8509999999999999E-2</v>
+        <v>1.537E-2</v>
       </c>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>0.52117000000000002</v>
+        <v>0.53198999999999996</v>
       </c>
       <c r="C88">
-        <v>6.6699999999999997E-3</v>
+        <v>1.072E-2</v>
       </c>
       <c r="D88">
-        <v>5.5100000000000001E-3</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="E88">
-        <v>7.9100000000000004E-3</v>
+        <v>8.8699999999999994E-3</v>
       </c>
       <c r="F88">
-        <v>1.238E-2</v>
+        <v>2.0049999999999998E-2</v>
       </c>
       <c r="G88">
-        <v>2.3570000000000001E-2</v>
+        <v>3.3989999999999999E-2</v>
       </c>
       <c r="H88">
-        <v>1.367E-2</v>
+        <v>1.8030000000000001E-2</v>
       </c>
       <c r="I88">
-        <v>2.0240000000000001E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="B89">
-        <v>0.52100999999999997</v>
+        <v>0.53907000000000005</v>
       </c>
       <c r="C89">
         <v>7.2500000000000004E-3</v>
       </c>
       <c r="D89">
-        <v>5.7999999999999996E-3</v>
+        <v>1.2030000000000001E-2</v>
       </c>
       <c r="E89">
-        <v>5.4999999999999997E-3</v>
+        <v>8.7100000000000007E-3</v>
       </c>
       <c r="F89">
-        <v>1.234E-2</v>
+        <v>1.145E-2</v>
       </c>
       <c r="G89">
-        <v>2.3449999999999999E-2</v>
+        <v>3.9140000000000001E-2</v>
       </c>
       <c r="H89">
-        <v>1.154E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="I89">
-        <v>1.4080000000000001E-2</v>
+        <v>1.8089999999999998E-2</v>
       </c>
       <c r="J89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90">
-        <v>0.52085000000000004</v>
-      </c>
-      <c r="C90">
-        <v>3.48E-3</v>
-      </c>
-      <c r="D90">
-        <v>5.5100000000000001E-3</v>
-      </c>
-      <c r="E90">
-        <v>4.0899999999999999E-3</v>
-      </c>
-      <c r="F90">
-        <v>5.6699999999999997E-3</v>
-      </c>
-      <c r="G90">
-        <v>2.4289999999999999E-2</v>
-      </c>
-      <c r="H90">
-        <v>1.004E-2</v>
-      </c>
-      <c r="I90">
-        <v>1.095E-2</v>
-      </c>
-      <c r="J90" t="b">
-        <v>1</v>
-      </c>
-      <c r="K90" t="s">
-        <v>42</v>
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.52744999999999997</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9.5700000000000004E-3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>8.8400000000000006E-3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>8.6700000000000006E-3</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1.312E-2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2.2360000000000001E-2</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1.5939999999999999E-2</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2.5360000000000001E-2</v>
+      </c>
+      <c r="J90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>0.52078999999999998</v>
+        <v>0.51729999999999998</v>
       </c>
       <c r="C91">
-        <v>4.64E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="D91">
-        <v>4.9300000000000004E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="E91">
-        <v>9.1299999999999992E-3</v>
+        <v>8.6599999999999993E-3</v>
       </c>
       <c r="F91">
-        <v>1.4800000000000001E-2</v>
+        <v>1.1679999999999999E-2</v>
       </c>
       <c r="G91">
-        <v>2.7519999999999999E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="H91">
-        <v>1.4449999999999999E-2</v>
+        <v>1.257E-2</v>
       </c>
       <c r="I91">
-        <v>1.37E-2</v>
+        <v>1.9529999999999999E-2</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="B92">
-        <v>0.52071000000000001</v>
+        <v>0.53818999999999995</v>
       </c>
       <c r="C92">
-        <v>4.9300000000000004E-3</v>
+        <v>7.8300000000000002E-3</v>
       </c>
       <c r="D92">
-        <v>5.2199999999999998E-3</v>
+        <v>1.116E-2</v>
       </c>
       <c r="E92">
-        <v>5.4599999999999996E-3</v>
+        <v>8.5699999999999995E-3</v>
       </c>
       <c r="F92">
-        <v>8.4399999999999996E-3</v>
+        <v>1.0789999999999999E-2</v>
       </c>
       <c r="G92">
-        <v>2.2800000000000001E-2</v>
+        <v>4.7390000000000002E-2</v>
       </c>
       <c r="H92">
-        <v>1.1220000000000001E-2</v>
+        <v>2.036E-2</v>
       </c>
       <c r="I92">
-        <v>1.52E-2</v>
+        <v>2.0369999999999999E-2</v>
       </c>
       <c r="J92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93">
-        <v>0.52048000000000005</v>
-      </c>
-      <c r="C93">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="D93">
-        <v>6.3800000000000003E-3</v>
-      </c>
-      <c r="E93">
-        <v>7.0800000000000004E-3</v>
-      </c>
-      <c r="F93">
-        <v>1.474E-2</v>
-      </c>
-      <c r="G93">
-        <v>2.0580000000000001E-2</v>
-      </c>
-      <c r="H93">
-        <v>1.2449999999999999E-2</v>
-      </c>
-      <c r="I93">
-        <v>1.5440000000000001E-2</v>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>27</v>
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.072E-2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1.014E-2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.5869999999999999E-2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3.1029999999999999E-2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="I93" s="1">
+        <v>2.1819999999999999E-2</v>
+      </c>
+      <c r="J93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B94">
-        <v>0.52044999999999997</v>
+        <v>0.52759</v>
       </c>
       <c r="C94">
         <v>7.8300000000000002E-3</v>
       </c>
       <c r="D94">
-        <v>5.6499999999999996E-3</v>
+        <v>8.8400000000000006E-3</v>
       </c>
       <c r="E94">
-        <v>8.9700000000000005E-3</v>
+        <v>8.5100000000000002E-3</v>
       </c>
       <c r="F94">
-        <v>1.1939999999999999E-2</v>
+        <v>1.4370000000000001E-2</v>
       </c>
       <c r="G94">
-        <v>2.2599999999999999E-2</v>
+        <v>3.0689999999999999E-2</v>
       </c>
       <c r="H94">
-        <v>1.4250000000000001E-2</v>
+        <v>1.6580000000000001E-2</v>
       </c>
       <c r="I94">
-        <v>2.0070000000000001E-2</v>
+        <v>1.899E-2</v>
       </c>
       <c r="J94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B95">
-        <v>0.52041000000000004</v>
+        <v>0.53615000000000002</v>
       </c>
       <c r="C95">
-        <v>8.1200000000000005E-3</v>
+        <v>1.014E-2</v>
       </c>
       <c r="D95">
-        <v>5.6499999999999996E-3</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="E95">
-        <v>9.9000000000000008E-3</v>
+        <v>8.4600000000000005E-3</v>
       </c>
       <c r="F95">
-        <v>1.8339999999999999E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="G95">
-        <v>2.2599999999999999E-2</v>
+        <v>3.6229999999999998E-2</v>
       </c>
       <c r="H95">
-        <v>1.4710000000000001E-2</v>
+        <v>1.8540000000000001E-2</v>
       </c>
       <c r="I95">
-        <v>1.8669999999999999E-2</v>
+        <v>2.3060000000000001E-2</v>
       </c>
       <c r="J95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>0.52037</v>
+        <v>0.52975000000000005</v>
       </c>
       <c r="C96">
-        <v>6.96E-3</v>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="D96">
-        <v>5.6499999999999996E-3</v>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="E96">
-        <v>8.2799999999999992E-3</v>
+        <v>8.3899999999999999E-3</v>
       </c>
       <c r="F96">
-        <v>1.2710000000000001E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="G96">
-        <v>2.2599999999999999E-2</v>
+        <v>3.2349999999999997E-2</v>
       </c>
       <c r="H96">
-        <v>1.366E-2</v>
+        <v>1.6969999999999999E-2</v>
       </c>
       <c r="I96">
-        <v>1.967E-2</v>
+        <v>1.975E-2</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="B97">
-        <v>0.52034000000000002</v>
+        <v>0.51924000000000003</v>
       </c>
       <c r="C97">
-        <v>7.5399999999999998E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="D97">
-        <v>5.6499999999999996E-3</v>
+        <v>4.7800000000000004E-3</v>
       </c>
       <c r="E97">
-        <v>6.1500000000000001E-3</v>
+        <v>8.3599999999999994E-3</v>
       </c>
       <c r="F97">
-        <v>1.523E-2</v>
+        <v>1.4919999999999999E-2</v>
       </c>
       <c r="G97">
-        <v>2.2599999999999999E-2</v>
+        <v>2.189E-2</v>
       </c>
       <c r="H97">
-        <v>1.2E-2</v>
+        <v>1.2749999999999999E-2</v>
       </c>
       <c r="I97">
-        <v>1.7739999999999999E-2</v>
+        <v>1.3270000000000001E-2</v>
       </c>
       <c r="J97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98">
+        <v>0.52407000000000004</v>
+      </c>
+      <c r="C98">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="D98">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="E98">
+        <v>8.2199999999999999E-3</v>
+      </c>
+      <c r="F98">
+        <v>1.307E-2</v>
+      </c>
+      <c r="G98">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="H98">
+        <v>1.4710000000000001E-2</v>
+      </c>
+      <c r="I98">
+        <v>1.968E-2</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
         <v>11</v>
-      </c>
-      <c r="B98">
-        <v>0.52031000000000005</v>
-      </c>
-      <c r="C98">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="D98">
-        <v>5.6499999999999996E-3</v>
-      </c>
-      <c r="E98">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="F98">
-        <v>9.7099999999999999E-3</v>
-      </c>
-      <c r="G98">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="H98">
-        <v>1.141E-2</v>
-      </c>
-      <c r="I98">
-        <v>1.357E-2</v>
-      </c>
-      <c r="J98" t="b">
-        <v>1</v>
-      </c>
-      <c r="K98" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B99">
-        <v>0.52024000000000004</v>
+        <v>0.53327999999999998</v>
       </c>
       <c r="C99">
-        <v>6.0899999999999999E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="D99">
-        <v>5.6499999999999996E-3</v>
+        <v>9.4199999999999996E-3</v>
       </c>
       <c r="E99">
-        <v>5.8599999999999998E-3</v>
+        <v>7.9500000000000005E-3</v>
       </c>
       <c r="F99">
-        <v>8.2699999999999996E-3</v>
+        <v>1.461E-2</v>
       </c>
       <c r="G99">
-        <v>2.2599999999999999E-2</v>
+        <v>3.4259999999999999E-2</v>
       </c>
       <c r="H99">
-        <v>1.1429999999999999E-2</v>
+        <v>1.7239999999999998E-2</v>
       </c>
       <c r="I99">
-        <v>1.47E-2</v>
+        <v>2.2259999999999999E-2</v>
       </c>
       <c r="J99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>16</v>
-      </c>
-      <c r="B100">
-        <v>0.52010000000000001</v>
-      </c>
-      <c r="C100">
-        <v>4.0600000000000002E-3</v>
-      </c>
-      <c r="D100">
-        <v>5.6499999999999996E-3</v>
-      </c>
-      <c r="E100">
-        <v>4.2700000000000004E-3</v>
-      </c>
-      <c r="F100">
-        <v>8.3499999999999998E-3</v>
-      </c>
-      <c r="G100">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="H100">
-        <v>9.7400000000000004E-3</v>
-      </c>
-      <c r="I100">
-        <v>8.6599999999999993E-3</v>
-      </c>
-      <c r="J100" t="b">
-        <v>1</v>
-      </c>
-      <c r="K100" t="s">
-        <v>12</v>
+      <c r="A100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.53349000000000002</v>
+      </c>
+      <c r="C100" s="1">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1.014E-2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>7.5900000000000004E-3</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1.0619999999999999E-2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>3.1029999999999999E-2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1.6580000000000001E-2</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1.984E-2</v>
+      </c>
+      <c r="J100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B101">
-        <v>0.52002000000000004</v>
+        <v>0.52075000000000005</v>
       </c>
       <c r="C101">
-        <v>6.0899999999999999E-3</v>
+        <v>7.2500000000000004E-3</v>
       </c>
       <c r="D101">
-        <v>5.3600000000000002E-3</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="E101">
-        <v>3.96E-3</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="F101">
-        <v>7.2199999999999999E-3</v>
+        <v>1.157E-2</v>
       </c>
       <c r="G101">
-        <v>2.1149999999999999E-2</v>
+        <v>2.138E-2</v>
       </c>
       <c r="H101">
-        <v>9.3799999999999994E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I101">
-        <v>1.0670000000000001E-2</v>
+        <v>1.5610000000000001E-2</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0.51993</v>
-      </c>
-      <c r="C102" s="1">
-        <v>6.3800000000000003E-3</v>
-      </c>
-      <c r="D102" s="1">
-        <v>6.3800000000000003E-3</v>
-      </c>
-      <c r="E102" s="1">
-        <v>6.1700000000000001E-3</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1.0120000000000001E-2</v>
-      </c>
-      <c r="G102" s="1">
-        <v>1.61E-2</v>
-      </c>
-      <c r="H102" s="1">
-        <v>1.0970000000000001E-2</v>
-      </c>
-      <c r="I102" s="1">
-        <v>1.6570000000000001E-2</v>
-      </c>
-      <c r="J102" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>42</v>
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102">
+        <v>0.52224000000000004</v>
+      </c>
+      <c r="C102">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="D102">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="E102">
+        <v>7.3499999999999998E-3</v>
+      </c>
+      <c r="F102">
+        <v>1.397E-2</v>
+      </c>
+      <c r="G102">
+        <v>2.4680000000000001E-2</v>
+      </c>
+      <c r="H102">
+        <v>1.358E-2</v>
+      </c>
+      <c r="I102">
+        <v>1.653E-2</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0.51990000000000003</v>
-      </c>
-      <c r="C103" s="1">
-        <v>6.0899999999999999E-3</v>
-      </c>
-      <c r="D103" s="1">
-        <v>6.3800000000000003E-3</v>
-      </c>
-      <c r="E103" s="1">
-        <v>3.82E-3</v>
-      </c>
-      <c r="F103" s="1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="G103" s="1">
-        <v>1.61E-2</v>
-      </c>
-      <c r="H103" s="1">
-        <v>9.11E-3</v>
-      </c>
-      <c r="I103" s="1">
-        <v>1.3259999999999999E-2</v>
-      </c>
-      <c r="J103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>27</v>
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103">
+        <v>0.52578000000000003</v>
+      </c>
+      <c r="C103">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="D103">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="E103">
+        <v>7.3400000000000002E-3</v>
+      </c>
+      <c r="F103">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="G103">
+        <v>2.3029999999999998E-2</v>
+      </c>
+      <c r="H103">
+        <v>1.391E-2</v>
+      </c>
+      <c r="I103">
+        <v>1.9040000000000001E-2</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0.51988999999999996</v>
-      </c>
-      <c r="C104" s="1">
-        <v>6.96E-3</v>
-      </c>
-      <c r="D104" s="1">
-        <v>6.3800000000000003E-3</v>
-      </c>
-      <c r="E104" s="1">
-        <v>6.0899999999999999E-3</v>
-      </c>
-      <c r="F104" s="1">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="G104" s="1">
-        <v>1.61E-2</v>
-      </c>
-      <c r="H104" s="1">
-        <v>1.111E-2</v>
-      </c>
-      <c r="I104" s="1">
-        <v>1.83E-2</v>
-      </c>
-      <c r="J104" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>12</v>
+      <c r="A104" t="s">
+        <v>74</v>
+      </c>
+      <c r="B104">
+        <v>0.52624000000000004</v>
+      </c>
+      <c r="C104">
+        <v>1.072E-2</v>
+      </c>
+      <c r="D104">
+        <v>7.9699999999999997E-3</v>
+      </c>
+      <c r="E104">
+        <v>7.3400000000000002E-3</v>
+      </c>
+      <c r="F104">
+        <v>1.4970000000000001E-2</v>
+      </c>
+      <c r="G104">
+        <v>2.18E-2</v>
+      </c>
+      <c r="H104">
+        <v>1.4370000000000001E-2</v>
+      </c>
+      <c r="I104">
+        <v>2.1270000000000001E-2</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B105">
-        <v>0.51976</v>
+        <v>0.53420000000000001</v>
       </c>
       <c r="C105">
-        <v>4.3499999999999997E-3</v>
+        <v>6.96E-3</v>
       </c>
       <c r="D105">
-        <v>5.2199999999999998E-3</v>
+        <v>9.8600000000000007E-3</v>
       </c>
       <c r="E105">
-        <v>7.3400000000000002E-3</v>
+        <v>7.3099999999999997E-3</v>
       </c>
       <c r="F105">
-        <v>8.8100000000000001E-3</v>
+        <v>1.1820000000000001E-2</v>
       </c>
       <c r="G105">
-        <v>2.1499999999999998E-2</v>
+        <v>3.6659999999999998E-2</v>
       </c>
       <c r="H105">
-        <v>1.197E-2</v>
+        <v>1.711E-2</v>
       </c>
       <c r="I105">
-        <v>1.2869999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="J105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B106">
-        <v>0.51959</v>
+        <v>0.52263999999999999</v>
       </c>
       <c r="C106">
-        <v>7.8300000000000002E-3</v>
+        <v>6.96E-3</v>
       </c>
       <c r="D106">
-        <v>5.6499999999999996E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="E106">
-        <v>7.26E-3</v>
+        <v>7.1300000000000001E-3</v>
       </c>
       <c r="F106">
-        <v>1.457E-2</v>
+        <v>9.9799999999999993E-3</v>
       </c>
       <c r="G106">
-        <v>2.0039999999999999E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="H106">
-        <v>1.2E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="I106">
-        <v>1.4120000000000001E-2</v>
+        <v>1.6879999999999999E-2</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>36</v>
+      </c>
+      <c r="B107">
+        <v>0.52261999999999997</v>
+      </c>
+      <c r="C107">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="D107">
+        <v>7.5399999999999998E-3</v>
+      </c>
+      <c r="E107">
+        <v>7.0800000000000004E-3</v>
+      </c>
+      <c r="F107">
+        <v>1.103E-2</v>
+      </c>
+      <c r="G107">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="H107">
+        <v>1.329E-2</v>
+      </c>
+      <c r="I107">
+        <v>1.5859999999999999E-2</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
         <v>25</v>
-      </c>
-      <c r="B107">
-        <v>0.51951000000000003</v>
-      </c>
-      <c r="C107">
-        <v>5.5100000000000001E-3</v>
-      </c>
-      <c r="D107">
-        <v>5.2199999999999998E-3</v>
-      </c>
-      <c r="E107">
-        <v>6.1900000000000002E-3</v>
-      </c>
-      <c r="F107">
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="G107">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="H107">
-        <v>1.132E-2</v>
-      </c>
-      <c r="I107">
-        <v>1.235E-2</v>
-      </c>
-      <c r="J107" t="b">
-        <v>1</v>
-      </c>
-      <c r="K107" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B108">
-        <v>0.51944000000000001</v>
+        <v>0.52048000000000005</v>
       </c>
       <c r="C108">
-        <v>5.5100000000000001E-3</v>
+        <v>6.6699999999999997E-3</v>
       </c>
       <c r="D108">
-        <v>5.6499999999999996E-3</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="E108">
-        <v>4.4400000000000004E-3</v>
+        <v>7.0800000000000004E-3</v>
       </c>
       <c r="F108">
-        <v>1.1820000000000001E-2</v>
+        <v>1.474E-2</v>
       </c>
       <c r="G108">
-        <v>2.0039999999999999E-2</v>
+        <v>2.0580000000000001E-2</v>
       </c>
       <c r="H108">
-        <v>9.6100000000000005E-3</v>
+        <v>1.2449999999999999E-2</v>
       </c>
       <c r="I108">
-        <v>1.0999999999999999E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="J108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B109">
-        <v>0.51939999999999997</v>
+        <v>0.52536000000000005</v>
       </c>
       <c r="C109">
-        <v>4.0600000000000002E-3</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="D109">
-        <v>5.2199999999999998E-3</v>
+        <v>8.5500000000000003E-3</v>
       </c>
       <c r="E109">
-        <v>4.0400000000000002E-3</v>
+        <v>6.9899999999999997E-3</v>
       </c>
       <c r="F109">
-        <v>8.5100000000000002E-3</v>
+        <v>9.5399999999999999E-3</v>
       </c>
       <c r="G109">
-        <v>2.2100000000000002E-2</v>
+        <v>2.486E-2</v>
       </c>
       <c r="H109">
-        <v>9.4699999999999993E-3</v>
+        <v>1.4160000000000001E-2</v>
       </c>
       <c r="I109">
-        <v>9.5200000000000007E-3</v>
+        <v>1.8620000000000001E-2</v>
       </c>
       <c r="J109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="B110">
-        <v>0.51924000000000003</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="C110">
-        <v>5.5100000000000001E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="D110">
-        <v>4.7800000000000004E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="E110">
-        <v>8.3599999999999994E-3</v>
+        <v>6.8900000000000003E-3</v>
       </c>
       <c r="F110">
-        <v>1.4919999999999999E-2</v>
+        <v>1.209E-2</v>
       </c>
       <c r="G110">
-        <v>2.189E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H110">
-        <v>1.2749999999999999E-2</v>
+        <v>1.154E-2</v>
       </c>
       <c r="I110">
-        <v>1.3270000000000001E-2</v>
+        <v>1.221E-2</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B111">
-        <v>0.51902999999999999</v>
+        <v>0.52741000000000005</v>
       </c>
       <c r="C111">
-        <v>5.7999999999999996E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="D111">
-        <v>4.7800000000000004E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="E111">
-        <v>5.1000000000000004E-3</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="F111">
-        <v>9.7699999999999992E-3</v>
+        <v>1.034E-2</v>
       </c>
       <c r="G111">
-        <v>2.087E-2</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="H111">
-        <v>1.0489999999999999E-2</v>
+        <v>1.4279999999999999E-2</v>
       </c>
       <c r="I111">
-        <v>1.3520000000000001E-2</v>
+        <v>2.189E-2</v>
       </c>
       <c r="J111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B112">
-        <v>0.51897000000000004</v>
+        <v>0.53417000000000003</v>
       </c>
       <c r="C112">
-        <v>4.64E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="D112">
-        <v>4.7800000000000004E-3</v>
+        <v>9.1299999999999992E-3</v>
       </c>
       <c r="E112">
-        <v>4.9100000000000003E-3</v>
+        <v>6.77E-3</v>
       </c>
       <c r="F112">
-        <v>6.3800000000000003E-3</v>
+        <v>1.008E-2</v>
       </c>
       <c r="G112">
-        <v>2.087E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="H112">
-        <v>1.008E-2</v>
+        <v>1.6580000000000001E-2</v>
       </c>
       <c r="I112">
-        <v>1.231E-2</v>
+        <v>1.489E-2</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="B113">
-        <v>0.51888000000000001</v>
+        <v>0.52464</v>
       </c>
       <c r="C113">
-        <v>5.5100000000000001E-3</v>
+        <v>3.7699999999999999E-3</v>
       </c>
       <c r="D113">
-        <v>4.1999999999999997E-3</v>
+        <v>6.0899999999999999E-3</v>
       </c>
       <c r="E113">
-        <v>8.7399999999999995E-3</v>
+        <v>6.6299999999999996E-3</v>
       </c>
       <c r="F113">
-        <v>1.511E-2</v>
+        <v>6.7400000000000003E-3</v>
       </c>
       <c r="G113">
-        <v>2.3369999999999998E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="H113">
-        <v>1.3299999999999999E-2</v>
+        <v>1.319E-2</v>
       </c>
       <c r="I113">
-        <v>1.414E-2</v>
+        <v>1.4279999999999999E-2</v>
       </c>
       <c r="J113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>52</v>
-      </c>
-      <c r="B114">
-        <v>0.51875000000000004</v>
-      </c>
-      <c r="C114">
-        <v>4.9300000000000004E-3</v>
-      </c>
-      <c r="D114">
-        <v>4.9300000000000004E-3</v>
-      </c>
-      <c r="E114">
-        <v>4.3899999999999998E-3</v>
-      </c>
-      <c r="F114">
-        <v>1.0160000000000001E-2</v>
-      </c>
-      <c r="G114">
-        <v>1.9120000000000002E-2</v>
-      </c>
-      <c r="H114">
-        <v>9.3100000000000006E-3</v>
-      </c>
-      <c r="I114">
-        <v>1.2070000000000001E-2</v>
-      </c>
-      <c r="J114" t="b">
-        <v>1</v>
-      </c>
-      <c r="K114" t="s">
-        <v>42</v>
+      <c r="A114" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.51993</v>
+      </c>
+      <c r="C114" s="1">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="D114" s="1">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="E114" s="1">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="F114" s="1">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1.1469999999999999E-2</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="J114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B115">
-        <v>0.51866999999999996</v>
+        <v>0.52522999999999997</v>
       </c>
       <c r="C115">
-        <v>5.5100000000000001E-3</v>
+        <v>7.2500000000000004E-3</v>
       </c>
       <c r="D115">
-        <v>4.3499999999999997E-3</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="E115">
-        <v>6.7200000000000003E-3</v>
+        <v>6.5700000000000003E-3</v>
       </c>
       <c r="F115">
-        <v>1.1990000000000001E-2</v>
+        <v>1.417E-2</v>
       </c>
       <c r="G115">
-        <v>1.6979999999999999E-2</v>
+        <v>2.426E-2</v>
       </c>
       <c r="H115">
-        <v>1.082E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="I115">
-        <v>1.473E-2</v>
+        <v>1.8440000000000002E-2</v>
       </c>
       <c r="J115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116">
-        <v>0.51866999999999996</v>
-      </c>
-      <c r="C116">
-        <v>2.32E-3</v>
-      </c>
-      <c r="D116">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="E116">
-        <v>4.0600000000000002E-3</v>
-      </c>
-      <c r="F116">
-        <v>2.7299999999999998E-3</v>
-      </c>
-      <c r="G116">
-        <v>2.3369999999999998E-2</v>
-      </c>
-      <c r="H116">
-        <v>9.3799999999999994E-3</v>
-      </c>
-      <c r="I116">
-        <v>8.8400000000000006E-3</v>
-      </c>
-      <c r="J116" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>27</v>
+      <c r="A116" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.52259</v>
+      </c>
+      <c r="C116" s="1">
+        <v>6.96E-3</v>
+      </c>
+      <c r="D116" s="1">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="E116" s="1">
+        <v>6.4599999999999996E-3</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1.1209999999999999E-2</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1.208E-2</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1.796E-2</v>
+      </c>
+      <c r="J116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B117">
-        <v>0.51859</v>
+        <v>0.52127999999999997</v>
       </c>
       <c r="C117">
-        <v>5.2199999999999998E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="D117">
-        <v>4.3499999999999997E-3</v>
+        <v>5.94E-3</v>
       </c>
       <c r="E117">
-        <v>4.7400000000000003E-3</v>
+        <v>6.4099999999999999E-3</v>
       </c>
       <c r="F117">
-        <v>1.107E-2</v>
+        <v>7.0899999999999999E-3</v>
       </c>
       <c r="G117">
-        <v>1.6979999999999999E-2</v>
+        <v>1.6049999999999998E-2</v>
       </c>
       <c r="H117">
-        <v>9.0900000000000009E-3</v>
+        <v>1.221E-2</v>
       </c>
       <c r="I117">
-        <v>1.12E-2</v>
+        <v>2.332E-2</v>
       </c>
       <c r="J117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B118">
-        <v>0.51848000000000005</v>
+        <v>0.51727999999999996</v>
       </c>
       <c r="C118">
-        <v>6.0899999999999999E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="D118">
-        <v>4.9300000000000004E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="E118">
-        <v>5.9100000000000003E-3</v>
+        <v>6.4099999999999999E-3</v>
       </c>
       <c r="F118">
-        <v>8.1399999999999997E-3</v>
+        <v>1.321E-2</v>
       </c>
       <c r="G118">
-        <v>2.0410000000000001E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="H118">
-        <v>1.102E-2</v>
+        <v>1.076E-2</v>
       </c>
       <c r="I118">
-        <v>1.5890000000000001E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="J118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>64</v>
-      </c>
-      <c r="B119">
-        <v>0.51841000000000004</v>
-      </c>
-      <c r="C119">
-        <v>6.3800000000000003E-3</v>
-      </c>
-      <c r="D119">
-        <v>6.0899999999999999E-3</v>
-      </c>
-      <c r="E119">
-        <v>9.2800000000000001E-3</v>
-      </c>
-      <c r="F119">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="G119">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="H119">
-        <v>1.3849999999999999E-2</v>
-      </c>
-      <c r="I119">
-        <v>1.9220000000000001E-2</v>
-      </c>
-      <c r="J119" t="b">
-        <v>0</v>
-      </c>
-      <c r="K119" t="s">
-        <v>12</v>
+      <c r="A119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.52263000000000004</v>
+      </c>
+      <c r="C119" s="1">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="D119" s="1">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>6.3400000000000001E-3</v>
+      </c>
+      <c r="F119" s="1">
+        <v>6.8900000000000003E-3</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1.2319999999999999E-2</v>
+      </c>
+      <c r="I119" s="1">
+        <v>2.0660000000000001E-2</v>
+      </c>
+      <c r="J119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B120">
-        <v>0.51836000000000004</v>
+        <v>0.51702000000000004</v>
       </c>
       <c r="C120">
-        <v>4.3499999999999997E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="D120">
-        <v>4.3499999999999997E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="E120">
-        <v>4.7800000000000004E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F120">
-        <v>8.6099999999999996E-3</v>
+        <v>8.4700000000000001E-3</v>
       </c>
       <c r="G120">
-        <v>1.7080000000000001E-2</v>
+        <v>1.5429999999999999E-2</v>
       </c>
       <c r="H120">
-        <v>9.3100000000000006E-3</v>
+        <v>1.038E-2</v>
       </c>
       <c r="I120">
-        <v>1.136E-2</v>
+        <v>1.257E-2</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B121">
-        <v>0.51832999999999996</v>
+        <v>0.51842999999999995</v>
       </c>
       <c r="C121">
-        <v>5.2199999999999998E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="D121">
         <v>4.3499999999999997E-3</v>
       </c>
       <c r="E121">
-        <v>3.7699999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="F121">
-        <v>1.103E-2</v>
+        <v>1.064E-2</v>
       </c>
       <c r="G121">
-        <v>1.7080000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H121">
-        <v>8.4700000000000001E-3</v>
+        <v>1.107E-2</v>
       </c>
       <c r="I121">
-        <v>1.055E-2</v>
+        <v>1.2840000000000001E-2</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B122">
-        <v>0.51829999999999998</v>
+        <v>0.52166999999999997</v>
       </c>
       <c r="C122">
-        <v>6.96E-3</v>
+        <v>8.1200000000000005E-3</v>
       </c>
       <c r="D122">
-        <v>6.0899999999999999E-3</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="E122">
-        <v>8.43E-3</v>
+        <v>6.0299999999999998E-3</v>
       </c>
       <c r="F122">
-        <v>1.157E-2</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="G122">
-        <v>1.9400000000000001E-2</v>
+        <v>1.762E-2</v>
       </c>
       <c r="H122">
-        <v>1.3270000000000001E-2</v>
+        <v>1.141E-2</v>
       </c>
       <c r="I122">
-        <v>2.0230000000000001E-2</v>
+        <v>1.8790000000000001E-2</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B123">
-        <v>0.51826000000000005</v>
+        <v>0.51961999999999997</v>
       </c>
       <c r="C123">
-        <v>7.5399999999999998E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="D123">
-        <v>6.0899999999999999E-3</v>
+        <v>5.0699999999999999E-3</v>
       </c>
       <c r="E123">
-        <v>5.77E-3</v>
+        <v>6.0099999999999997E-3</v>
       </c>
       <c r="F123">
-        <v>9.2599999999999991E-3</v>
+        <v>1.0279999999999999E-2</v>
       </c>
       <c r="G123">
-        <v>1.9400000000000001E-2</v>
+        <v>2.213E-2</v>
       </c>
       <c r="H123">
-        <v>1.1050000000000001E-2</v>
+        <v>1.128E-2</v>
       </c>
       <c r="I123">
-        <v>1.6049999999999998E-2</v>
+        <v>1.4619999999999999E-2</v>
       </c>
       <c r="J123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B124">
-        <v>0.51824000000000003</v>
+        <v>0.52668000000000004</v>
       </c>
       <c r="C124">
-        <v>4.64E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="D124">
-        <v>6.0899999999999999E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="E124">
-        <v>5.0299999999999997E-3</v>
+        <v>5.96E-3</v>
       </c>
       <c r="F124">
-        <v>6.2599999999999999E-3</v>
+        <v>5.8700000000000002E-3</v>
       </c>
       <c r="G124">
-        <v>1.9400000000000001E-2</v>
+        <v>3.1489999999999997E-2</v>
       </c>
       <c r="H124">
-        <v>1.005E-2</v>
+        <v>1.384E-2</v>
       </c>
       <c r="I124">
-        <v>1.0070000000000001E-2</v>
+        <v>1.438E-2</v>
       </c>
       <c r="J124" t="b">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B125">
-        <v>0.51819000000000004</v>
+        <v>0.51971999999999996</v>
       </c>
       <c r="C125">
-        <v>6.3800000000000003E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="D125">
         <v>5.0699999999999999E-3</v>
       </c>
       <c r="E125">
-        <v>5.2599999999999999E-3</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="F125">
-        <v>9.2499999999999995E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="G125">
-        <v>1.9179999999999999E-2</v>
+        <v>2.213E-2</v>
       </c>
       <c r="H125">
-        <v>1.0149999999999999E-2</v>
+        <v>1.107E-2</v>
       </c>
       <c r="I125">
-        <v>1.3310000000000001E-2</v>
+        <v>1.137E-2</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="B126">
-        <v>0.51815999999999995</v>
+        <v>0.52771000000000001</v>
       </c>
       <c r="C126">
-        <v>3.1900000000000001E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="D126">
-        <v>6.0899999999999999E-3</v>
+        <v>8.4100000000000008E-3</v>
       </c>
       <c r="E126">
-        <v>3.5899999999999999E-3</v>
+        <v>5.8599999999999998E-3</v>
       </c>
       <c r="F126">
-        <v>2.0799999999999998E-3</v>
+        <v>5.1399999999999996E-3</v>
       </c>
       <c r="G126">
-        <v>1.9400000000000001E-2</v>
+        <v>2.964E-2</v>
       </c>
       <c r="H126">
-        <v>8.94E-3</v>
+        <v>1.3780000000000001E-2</v>
       </c>
       <c r="I126">
-        <v>1.001E-2</v>
+        <v>1.5970000000000002E-2</v>
       </c>
       <c r="J126" t="b">
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="B127">
-        <v>0.51815</v>
+        <v>0.52985000000000004</v>
       </c>
       <c r="C127">
-        <v>4.64E-3</v>
+        <v>6.0899999999999999E-3</v>
       </c>
       <c r="D127">
-        <v>6.0899999999999999E-3</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="E127">
-        <v>4.8399999999999997E-3</v>
+        <v>5.8500000000000002E-3</v>
       </c>
       <c r="F127">
-        <v>3.8500000000000001E-3</v>
+        <v>4.8700000000000002E-3</v>
       </c>
       <c r="G127">
-        <v>1.9400000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="H127">
-        <v>9.9900000000000006E-3</v>
+        <v>1.4590000000000001E-2</v>
       </c>
       <c r="I127">
-        <v>1.272E-2</v>
+        <v>1.9439999999999999E-2</v>
       </c>
       <c r="J127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128">
-        <v>0.51814000000000004</v>
-      </c>
-      <c r="C128">
-        <v>5.5100000000000001E-3</v>
-      </c>
-      <c r="D128">
-        <v>4.9300000000000004E-3</v>
-      </c>
-      <c r="E128">
+      <c r="A128" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C128" s="1">
         <v>8.4100000000000008E-3</v>
       </c>
-      <c r="F128">
-        <v>1.1010000000000001E-2</v>
-      </c>
-      <c r="G128">
-        <v>1.9519999999999999E-2</v>
-      </c>
-      <c r="H128">
-        <v>1.274E-2</v>
-      </c>
-      <c r="I128">
-        <v>1.7670000000000002E-2</v>
-      </c>
-      <c r="J128" t="b">
-        <v>1</v>
-      </c>
-      <c r="K128" t="s">
-        <v>12</v>
+      <c r="D128" s="1">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="E128" s="1">
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="F128" s="1">
+        <v>9.7400000000000004E-3</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1.098E-2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1.8079999999999999E-2</v>
+      </c>
+      <c r="J128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B129">
-        <v>0.51810999999999996</v>
+        <v>0.52459</v>
       </c>
       <c r="C129">
-        <v>5.7999999999999996E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="D129">
-        <v>5.0699999999999999E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="E129">
-        <v>4.6899999999999997E-3</v>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="F129">
-        <v>1.319E-2</v>
+        <v>9.4800000000000006E-3</v>
       </c>
       <c r="G129">
-        <v>1.9179999999999999E-2</v>
+        <v>1.951E-2</v>
       </c>
       <c r="H129">
-        <v>9.4800000000000006E-3</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="I129">
-        <v>1.094E-2</v>
+        <v>1.9429999999999999E-2</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B130">
-        <v>0.5181</v>
+        <v>0.51568999999999998</v>
       </c>
       <c r="C130">
-        <v>6.0899999999999999E-3</v>
+        <v>4.0600000000000002E-3</v>
       </c>
       <c r="D130">
-        <v>4.9300000000000004E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="E130">
-        <v>4.45E-3</v>
+        <v>5.7299999999999999E-3</v>
       </c>
       <c r="F130">
-        <v>9.0200000000000002E-3</v>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="G130">
-        <v>1.9519999999999999E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="H130">
-        <v>9.5499999999999995E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="I130">
-        <v>1.323E-2</v>
+        <v>1.576E-2</v>
       </c>
       <c r="J130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B131">
-        <v>0.5181</v>
+        <v>0.52647999999999995</v>
       </c>
       <c r="C131">
-        <v>4.64E-3</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="D131">
-        <v>5.0699999999999999E-3</v>
+        <v>8.26E-3</v>
       </c>
       <c r="E131">
-        <v>3.7499999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F131">
-        <v>6.1900000000000002E-3</v>
+        <v>1.302E-2</v>
       </c>
       <c r="G131">
-        <v>1.9179999999999999E-2</v>
+        <v>1.9439999999999999E-2</v>
       </c>
       <c r="H131">
-        <v>8.8199999999999997E-3</v>
+        <v>1.226E-2</v>
       </c>
       <c r="I131">
-        <v>1.1390000000000001E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132">
-        <v>0.51763000000000003</v>
-      </c>
-      <c r="C132">
-        <v>4.0600000000000002E-3</v>
-      </c>
-      <c r="D132">
-        <v>4.64E-3</v>
-      </c>
-      <c r="E132">
-        <v>3.9899999999999996E-3</v>
-      </c>
-      <c r="F132">
-        <v>8.7200000000000003E-3</v>
-      </c>
-      <c r="G132">
-        <v>2.0129999999999999E-2</v>
-      </c>
-      <c r="H132">
-        <v>8.7399999999999995E-3</v>
-      </c>
-      <c r="I132">
-        <v>7.5700000000000003E-3</v>
-      </c>
-      <c r="J132" t="b">
-        <v>1</v>
-      </c>
-      <c r="K132" t="s">
-        <v>12</v>
+      <c r="A132" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.52258000000000004</v>
+      </c>
+      <c r="C132" s="1">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="D132" s="1">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="E132" s="1">
+        <v>5.6899999999999997E-3</v>
+      </c>
+      <c r="F132" s="1">
+        <v>7.62E-3</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1.7139999999999999E-2</v>
+      </c>
+      <c r="J132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>38</v>
-      </c>
-      <c r="B133">
-        <v>0.51753000000000005</v>
-      </c>
-      <c r="C133">
-        <v>4.64E-3</v>
-      </c>
-      <c r="D133">
-        <v>4.3499999999999997E-3</v>
-      </c>
-      <c r="E133">
-        <v>7.1700000000000002E-3</v>
-      </c>
-      <c r="F133">
-        <v>7.62E-3</v>
-      </c>
-      <c r="G133">
-        <v>1.933E-2</v>
-      </c>
-      <c r="H133">
-        <v>1.155E-2</v>
-      </c>
-      <c r="I133">
-        <v>1.5689999999999999E-2</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="s">
-        <v>27</v>
+      <c r="A133" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C133" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D133" s="1">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="E133" s="1">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="F133" s="1">
+        <v>6.6899999999999998E-3</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1.074E-2</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1.5959999999999998E-2</v>
+      </c>
+      <c r="J133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>39</v>
-      </c>
-      <c r="B134">
-        <v>0.51751999999999998</v>
-      </c>
-      <c r="C134">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D134">
-        <v>4.3499999999999997E-3</v>
-      </c>
-      <c r="E134">
-        <v>5.6800000000000002E-3</v>
-      </c>
-      <c r="F134">
-        <v>1.396E-2</v>
-      </c>
-      <c r="G134">
-        <v>1.933E-2</v>
-      </c>
-      <c r="H134">
-        <v>1.0290000000000001E-2</v>
-      </c>
-      <c r="I134">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="J134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K134" t="s">
-        <v>27</v>
+      <c r="A134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.51987000000000005</v>
+      </c>
+      <c r="C134" s="1">
+        <v>5.5100000000000001E-3</v>
+      </c>
+      <c r="D134" s="1">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="E134" s="1">
+        <v>5.5199999999999997E-3</v>
+      </c>
+      <c r="F134" s="1">
+        <v>6.7299999999999999E-3</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1.0880000000000001E-2</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="J134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="B135">
-        <v>0.51731000000000005</v>
+        <v>0.51739000000000002</v>
       </c>
       <c r="C135">
-        <v>3.48E-3</v>
+        <v>6.6699999999999997E-3</v>
       </c>
       <c r="D135">
-        <v>4.4900000000000001E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="E135">
-        <v>2.9199999999999999E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F135">
-        <v>3.3300000000000001E-3</v>
+        <v>8.7799999999999996E-3</v>
       </c>
       <c r="G135">
-        <v>1.3429999999999999E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="H135">
-        <v>7.3200000000000001E-3</v>
+        <v>9.9600000000000001E-3</v>
       </c>
       <c r="I135">
-        <v>1.15E-2</v>
+        <v>1.4080000000000001E-2</v>
       </c>
       <c r="J135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B136">
-        <v>0.51690000000000003</v>
+        <v>0.52166000000000001</v>
       </c>
       <c r="C136">
-        <v>1.74E-3</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="D136">
-        <v>4.4900000000000001E-3</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="E136">
-        <v>2.3700000000000001E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F136">
-        <v>2.82E-3</v>
+        <v>9.1699999999999993E-3</v>
       </c>
       <c r="G136">
-        <v>1.3429999999999999E-2</v>
+        <v>1.762E-2</v>
       </c>
       <c r="H136">
-        <v>6.4999999999999997E-3</v>
+        <v>1.0749999999999999E-2</v>
       </c>
       <c r="I136">
-        <v>7.9100000000000004E-3</v>
+        <v>1.763E-2</v>
       </c>
       <c r="J136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B137">
-        <v>0.51685000000000003</v>
+        <v>0.51593999999999995</v>
       </c>
       <c r="C137">
-        <v>4.3499999999999997E-3</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="D137">
-        <v>4.3499999999999997E-3</v>
+        <v>3.62E-3</v>
       </c>
       <c r="E137">
-        <v>7.0699999999999999E-3</v>
+        <v>5.2599999999999999E-3</v>
       </c>
       <c r="F137">
-        <v>9.9500000000000005E-3</v>
+        <v>7.26E-3</v>
       </c>
       <c r="G137">
-        <v>1.856E-2</v>
+        <v>1.601E-2</v>
       </c>
       <c r="H137">
-        <v>1.082E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="I137">
-        <v>1.227E-2</v>
+        <v>1.0489999999999999E-2</v>
       </c>
       <c r="J137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B138">
-        <v>0.51683000000000001</v>
+        <v>0.52481</v>
       </c>
       <c r="C138">
-        <v>3.48E-3</v>
+        <v>4.0600000000000002E-3</v>
       </c>
       <c r="D138">
-        <v>4.3499999999999997E-3</v>
+        <v>6.0899999999999999E-3</v>
       </c>
       <c r="E138">
-        <v>6.8199999999999997E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="F138">
-        <v>6.6800000000000002E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="G138">
-        <v>1.856E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="H138">
-        <v>1.065E-2</v>
+        <v>1.192E-2</v>
       </c>
       <c r="I138">
-        <v>1.2189999999999999E-2</v>
+        <v>1.108E-2</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B139">
-        <v>0.5161</v>
+        <v>0.51900999999999997</v>
       </c>
       <c r="C139">
-        <v>4.0600000000000002E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="D139">
-        <v>3.48E-3</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="E139">
-        <v>9.41E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="F139">
-        <v>1.34E-2</v>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="G139">
-        <v>2.426E-2</v>
+        <v>1.3639999999999999E-2</v>
       </c>
       <c r="H139">
-        <v>1.355E-2</v>
+        <v>9.3299999999999998E-3</v>
       </c>
       <c r="I139">
-        <v>1.277E-2</v>
+        <v>1.4239999999999999E-2</v>
       </c>
       <c r="J139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B140">
-        <v>0.51600000000000001</v>
+        <v>0.51941999999999999</v>
       </c>
       <c r="C140">
-        <v>3.7699999999999999E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="D140">
-        <v>3.48E-3</v>
+        <v>6.2300000000000003E-3</v>
       </c>
       <c r="E140">
-        <v>7.43E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="F140">
-        <v>1.333E-2</v>
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="G140">
-        <v>2.426E-2</v>
+        <v>2.1360000000000001E-2</v>
       </c>
       <c r="H140">
-        <v>1.205E-2</v>
+        <v>1.0919999999999999E-2</v>
       </c>
       <c r="I140">
-        <v>1.0800000000000001E-2</v>
+        <v>1.414E-2</v>
       </c>
       <c r="J140" t="b">
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>33</v>
-      </c>
-      <c r="B141">
-        <v>0.51554</v>
-      </c>
-      <c r="C141">
-        <v>4.0600000000000002E-3</v>
-      </c>
-      <c r="D141">
-        <v>3.9100000000000003E-3</v>
-      </c>
-      <c r="E141">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="F141">
-        <v>1.008E-2</v>
-      </c>
-      <c r="G141">
-        <v>1.8180000000000002E-2</v>
-      </c>
-      <c r="H141">
-        <v>1.082E-2</v>
-      </c>
-      <c r="I141">
-        <v>1.183E-2</v>
-      </c>
-      <c r="J141" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" t="s">
-        <v>27</v>
+      <c r="A141" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.52251999999999998</v>
+      </c>
+      <c r="C141" s="1">
+        <v>6.96E-3</v>
+      </c>
+      <c r="D141" s="1">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="E141" s="1">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="F141" s="1">
+        <v>7.3299999999999997E-3</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1.0659999999999999E-2</v>
+      </c>
+      <c r="I141" s="1">
+        <v>1.4659999999999999E-2</v>
+      </c>
+      <c r="J141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B142">
-        <v>0.51551000000000002</v>
+        <v>0.51554</v>
       </c>
       <c r="C142">
-        <v>4.0600000000000002E-3</v>
+        <v>3.7699999999999999E-3</v>
       </c>
       <c r="D142">
-        <v>3.9100000000000003E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="E142">
-        <v>7.11E-3</v>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="F142">
-        <v>1.2840000000000001E-2</v>
+        <v>7.3800000000000003E-3</v>
       </c>
       <c r="G142">
-        <v>1.8180000000000002E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="H142">
-        <v>1.073E-2</v>
+        <v>8.2199999999999999E-3</v>
       </c>
       <c r="I142">
-        <v>1.111E-2</v>
+        <v>1.055E-2</v>
       </c>
       <c r="J142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="B143">
-        <v>0.51334999999999997</v>
+        <v>0.51744000000000001</v>
       </c>
       <c r="C143">
-        <v>2.6099999999999999E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="D143">
-        <v>3.62E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="E143">
-        <v>1.2899999999999999E-3</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="F143">
-        <v>2.1099999999999999E-3</v>
+        <v>1.072E-2</v>
       </c>
       <c r="G143">
-        <v>5.4900000000000001E-3</v>
+        <v>1.7229999999999999E-2</v>
       </c>
       <c r="H143">
-        <v>3.79E-3</v>
+        <v>9.2200000000000008E-3</v>
       </c>
       <c r="I143">
-        <v>8.1200000000000005E-3</v>
+        <v>1.269E-2</v>
       </c>
       <c r="J143" t="b">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>188</v>
-      </c>
-      <c r="B144">
-        <v>0.51144000000000001</v>
-      </c>
-      <c r="C144">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="D144">
-        <v>3.0400000000000002E-3</v>
-      </c>
-      <c r="E144">
-        <v>1.9499999999999999E-3</v>
-      </c>
-      <c r="F144">
-        <v>3.82E-3</v>
-      </c>
-      <c r="G144">
-        <v>1.093E-2</v>
-      </c>
-      <c r="H144">
-        <v>4.9100000000000003E-3</v>
-      </c>
-      <c r="I144">
-        <v>6.8100000000000001E-3</v>
-      </c>
-      <c r="J144" t="b">
-        <v>0</v>
-      </c>
-      <c r="K144" t="s">
-        <v>12</v>
+      <c r="A144" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.51987000000000005</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="D144" s="1">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="E144" s="1">
+        <v>4.47E-3</v>
+      </c>
+      <c r="F144" s="1">
+        <v>5.3400000000000001E-3</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H144" s="1">
+        <v>9.6799999999999994E-3</v>
+      </c>
+      <c r="I144" s="1">
+        <v>1.481E-2</v>
+      </c>
+      <c r="J144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="B145">
-        <v>0.50917999999999997</v>
+        <v>0.51819000000000004</v>
       </c>
       <c r="C145">
-        <v>2.8999999999999998E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="D145">
-        <v>2.4599999999999999E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="E145">
-        <v>3.79E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="F145">
-        <v>4.15E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="G145">
-        <v>5.6299999999999996E-3</v>
+        <v>1.2109999999999999E-2</v>
       </c>
       <c r="H145">
-        <v>5.7099999999999998E-3</v>
+        <v>8.2299999999999995E-3</v>
       </c>
       <c r="I145">
-        <v>1.099E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="J145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>189</v>
-      </c>
-      <c r="B146">
-        <v>0.50848000000000004</v>
-      </c>
-      <c r="C146">
-        <v>2.32E-3</v>
-      </c>
-      <c r="D146">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="E146">
-        <v>1.4300000000000001E-3</v>
-      </c>
-      <c r="F146">
-        <v>2.2799999999999999E-3</v>
-      </c>
-      <c r="G146">
-        <v>6.9800000000000001E-3</v>
-      </c>
-      <c r="H146">
-        <v>3.65E-3</v>
-      </c>
-      <c r="I146">
-        <v>6.6100000000000004E-3</v>
-      </c>
-      <c r="J146" t="b">
-        <v>0</v>
-      </c>
-      <c r="K146" t="s">
-        <v>27</v>
+      <c r="A146" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0.52234999999999998</v>
+      </c>
+      <c r="C146" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D146" s="1">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="E146" s="1">
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="F146" s="1">
+        <v>8.0599999999999995E-3</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="H146" s="1">
+        <v>1.009E-2</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1.3169999999999999E-2</v>
+      </c>
+      <c r="J146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B147">
-        <v>0.50834999999999997</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C147">
-        <v>3.1900000000000001E-3</v>
+        <v>6.0899999999999999E-3</v>
       </c>
       <c r="D147">
-        <v>2.7499999999999998E-3</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="E147">
-        <v>1.48E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="F147">
-        <v>1.7899999999999999E-3</v>
+        <v>7.43E-3</v>
       </c>
       <c r="G147">
-        <v>4.5799999999999999E-3</v>
+        <v>1.3639999999999999E-2</v>
       </c>
       <c r="H147">
-        <v>3.5100000000000001E-3</v>
+        <v>8.8500000000000002E-3</v>
       </c>
       <c r="I147">
-        <v>9.1900000000000003E-3</v>
+        <v>1.3440000000000001E-2</v>
       </c>
       <c r="J147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>57</v>
-      </c>
-      <c r="B148">
-        <v>0.50831999999999999</v>
-      </c>
-      <c r="C148">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="D148">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="E148">
-        <v>1.7899999999999999E-3</v>
-      </c>
-      <c r="F148">
-        <v>2.0600000000000002E-3</v>
-      </c>
-      <c r="G148">
-        <v>4.5799999999999999E-3</v>
-      </c>
-      <c r="H148">
-        <v>3.7200000000000002E-3</v>
-      </c>
-      <c r="I148">
-        <v>9.2099999999999994E-3</v>
-      </c>
-      <c r="J148" t="b">
-        <v>0</v>
-      </c>
-      <c r="K148" t="s">
-        <v>12</v>
+      <c r="A148" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="C148" s="1">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="D148" s="1">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="E148" s="1">
+        <v>4.3099999999999996E-3</v>
+      </c>
+      <c r="F148" s="1">
+        <v>5.4400000000000004E-3</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="H148" s="1">
+        <v>1.035E-2</v>
+      </c>
+      <c r="I148" s="1">
+        <v>1.469E-2</v>
+      </c>
+      <c r="J148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B149">
-        <v>0.5081</v>
+        <v>0.51595999999999997</v>
       </c>
       <c r="C149">
-        <v>2.6099999999999999E-3</v>
+        <v>3.48E-3</v>
       </c>
       <c r="D149">
-        <v>2.0300000000000001E-3</v>
+        <v>3.62E-3</v>
       </c>
       <c r="E149">
-        <v>2.7100000000000002E-3</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="F149">
-        <v>4.0800000000000003E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="G149">
-        <v>6.8900000000000003E-3</v>
+        <v>1.601E-2</v>
       </c>
       <c r="H149">
-        <v>4.4299999999999999E-3</v>
+        <v>8.2699999999999996E-3</v>
       </c>
       <c r="I149">
-        <v>6.0400000000000002E-3</v>
+        <v>1.102E-2</v>
       </c>
       <c r="J149" t="b">
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>80</v>
-      </c>
-      <c r="B150">
-        <v>0.50777000000000005</v>
-      </c>
-      <c r="C150">
-        <v>2.0300000000000001E-3</v>
-      </c>
-      <c r="D150">
-        <v>2.1700000000000001E-3</v>
-      </c>
-      <c r="E150">
-        <v>1.5499999999999999E-3</v>
-      </c>
-      <c r="F150">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G150">
-        <v>5.3899999999999998E-3</v>
-      </c>
-      <c r="H150">
-        <v>3.3899999999999998E-3</v>
-      </c>
-      <c r="I150">
-        <v>6.13E-3</v>
-      </c>
-      <c r="J150" t="b">
-        <v>0</v>
-      </c>
-      <c r="K150" t="s">
-        <v>27</v>
+      <c r="A150" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0.51980999999999999</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5.5100000000000001E-3</v>
+      </c>
+      <c r="D150" s="1">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="E150" s="1">
+        <v>4.28E-3</v>
+      </c>
+      <c r="F150" s="1">
+        <v>8.0599999999999995E-3</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H150" s="1">
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1.2409999999999999E-2</v>
+      </c>
+      <c r="J150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B151">
-        <v>0.50770000000000004</v>
+        <v>0.51705000000000001</v>
       </c>
       <c r="C151">
-        <v>3.1900000000000001E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="D151">
-        <v>2.0300000000000001E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="E151">
-        <v>1.2700000000000001E-3</v>
+        <v>4.2500000000000003E-3</v>
       </c>
       <c r="F151">
-        <v>1.7700000000000001E-3</v>
+        <v>7.0800000000000004E-3</v>
       </c>
       <c r="G151">
-        <v>5.3899999999999998E-3</v>
+        <v>1.5429999999999999E-2</v>
       </c>
       <c r="H151">
-        <v>3.1900000000000001E-3</v>
+        <v>8.9599999999999992E-3</v>
       </c>
       <c r="I151">
-        <v>7.6800000000000002E-3</v>
+        <v>1.273E-2</v>
       </c>
       <c r="J151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B152">
-        <v>0.50656999999999996</v>
+        <v>0.51739000000000002</v>
       </c>
       <c r="C152">
-        <v>3.48E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="D152">
-        <v>2.0300000000000001E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="E152">
-        <v>1.14E-3</v>
+        <v>4.1700000000000001E-3</v>
       </c>
       <c r="F152">
-        <v>2.0999999999999999E-3</v>
+        <v>8.7399999999999995E-3</v>
       </c>
       <c r="G152">
-        <v>2.4599999999999999E-3</v>
+        <v>1.7229999999999999E-2</v>
       </c>
       <c r="H152">
-        <v>2.66E-3</v>
+        <v>8.6199999999999992E-3</v>
       </c>
       <c r="I152">
-        <v>7.9699999999999997E-3</v>
+        <v>8.8299999999999993E-3</v>
       </c>
       <c r="J152" t="b">
         <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B153">
-        <v>0.50653999999999999</v>
+        <v>0.51849000000000001</v>
       </c>
       <c r="C153">
-        <v>2.0300000000000001E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="D153">
-        <v>2.0300000000000001E-3</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="E153">
-        <v>2.6800000000000001E-3</v>
+        <v>3.9100000000000003E-3</v>
       </c>
       <c r="F153">
-        <v>2.5899999999999999E-3</v>
+        <v>6.5300000000000002E-3</v>
       </c>
       <c r="G153">
-        <v>5.4299999999999999E-3</v>
+        <v>1.379E-2</v>
       </c>
       <c r="H153">
-        <v>4.2500000000000003E-3</v>
+        <v>8.4200000000000004E-3</v>
       </c>
       <c r="I153">
-        <v>7.92E-3</v>
+        <v>1.3010000000000001E-2</v>
       </c>
       <c r="J153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B154">
-        <v>0.50653999999999999</v>
+        <v>0.51817000000000002</v>
       </c>
       <c r="C154">
-        <v>2.0300000000000001E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="D154">
-        <v>1.5900000000000001E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="E154">
-        <v>9.7000000000000005E-4</v>
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="F154">
-        <v>7.5000000000000002E-4</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="G154">
-        <v>4.6600000000000001E-3</v>
+        <v>1.2109999999999999E-2</v>
       </c>
       <c r="H154">
-        <v>2.5699999999999998E-3</v>
+        <v>7.5300000000000002E-3</v>
       </c>
       <c r="I154">
-        <v>6.0600000000000003E-3</v>
+        <v>1.2449999999999999E-2</v>
       </c>
       <c r="J154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B155">
-        <v>0.50651000000000002</v>
+        <v>0.51893999999999996</v>
       </c>
       <c r="C155">
-        <v>1.4499999999999999E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="D155">
-        <v>1.5900000000000001E-3</v>
+        <v>5.0699999999999999E-3</v>
       </c>
       <c r="E155">
-        <v>1.5399999999999999E-3</v>
+        <v>3.5500000000000002E-3</v>
       </c>
       <c r="F155">
-        <v>2.8300000000000001E-3</v>
+        <v>5.8500000000000002E-3</v>
       </c>
       <c r="G155">
-        <v>4.6600000000000001E-3</v>
+        <v>1.7649999999999999E-2</v>
       </c>
       <c r="H155">
-        <v>2.9199999999999999E-3</v>
+        <v>8.4499999999999992E-3</v>
       </c>
       <c r="I155">
-        <v>4.7099999999999998E-3</v>
+        <v>1.073E-2</v>
       </c>
       <c r="J155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B156">
-        <v>0.50649</v>
+        <v>0.51534999999999997</v>
       </c>
       <c r="C156">
-        <v>2.32E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="D156">
-        <v>1.8799999999999999E-3</v>
+        <v>5.0699999999999999E-3</v>
       </c>
       <c r="E156">
-        <v>8.7000000000000001E-4</v>
+        <v>3.5200000000000001E-3</v>
       </c>
       <c r="F156">
-        <v>2.2100000000000002E-3</v>
+        <v>5.0299999999999997E-3</v>
       </c>
       <c r="G156">
-        <v>4.9699999999999996E-3</v>
+        <v>1.18E-2</v>
       </c>
       <c r="H156">
-        <v>2.3999999999999998E-3</v>
+        <v>7.5199999999999998E-3</v>
       </c>
       <c r="I156">
-        <v>3.3999999999999998E-3</v>
+        <v>1.367E-2</v>
       </c>
       <c r="J156" t="b">
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B157">
-        <v>0.50639000000000001</v>
+        <v>0.51554</v>
       </c>
       <c r="C157">
-        <v>1.4499999999999999E-3</v>
+        <v>3.7699999999999999E-3</v>
       </c>
       <c r="D157">
-        <v>1.5900000000000001E-3</v>
+        <v>4.7800000000000004E-3</v>
       </c>
       <c r="E157">
-        <v>6.3000000000000003E-4</v>
+        <v>3.4299999999999999E-3</v>
       </c>
       <c r="F157">
-        <v>1.83E-3</v>
+        <v>3.8800000000000002E-3</v>
       </c>
       <c r="G157">
-        <v>2.9199999999999999E-3</v>
+        <v>1.034E-2</v>
       </c>
       <c r="H157">
-        <v>1.81E-3</v>
+        <v>6.7499999999999999E-3</v>
       </c>
       <c r="I157">
-        <v>3.2599999999999999E-3</v>
+        <v>9.8600000000000007E-3</v>
       </c>
       <c r="J157" t="b">
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B158">
-        <v>0.50588</v>
+        <v>0.51715999999999995</v>
       </c>
       <c r="C158">
-        <v>3.1900000000000001E-3</v>
+        <v>3.48E-3</v>
       </c>
       <c r="D158">
-        <v>1.5900000000000001E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="E158">
-        <v>2.4199999999999998E-3</v>
+        <v>3.3500000000000001E-3</v>
       </c>
       <c r="F158">
-        <v>3.4399999999999999E-3</v>
+        <v>3.6700000000000001E-3</v>
       </c>
       <c r="G158">
-        <v>3.4399999999999999E-3</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="H158">
-        <v>3.5200000000000001E-3</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="I158">
-        <v>7.0499999999999998E-3</v>
+        <v>8.8599999999999998E-3</v>
       </c>
       <c r="J158" t="b">
         <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B159">
-        <v>0.50588</v>
+        <v>0.51556999999999997</v>
       </c>
       <c r="C159">
-        <v>2.32E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="D159">
-        <v>1.4499999999999999E-3</v>
+        <v>4.7800000000000004E-3</v>
       </c>
       <c r="E159">
-        <v>8.9999999999999998E-4</v>
+        <v>3.2599999999999999E-3</v>
       </c>
       <c r="F159">
-        <v>3.16E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="G159">
-        <v>3.4399999999999999E-3</v>
+        <v>1.034E-2</v>
       </c>
       <c r="H159">
-        <v>2.1299999999999999E-3</v>
+        <v>6.7200000000000003E-3</v>
       </c>
       <c r="I159">
-        <v>3.7100000000000002E-3</v>
+        <v>9.8300000000000002E-3</v>
       </c>
       <c r="J159" t="b">
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B160">
-        <v>0.50585999999999998</v>
+        <v>0.51595999999999997</v>
       </c>
       <c r="C160">
-        <v>1.74E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="D160">
-        <v>1.4499999999999999E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="E160">
-        <v>1.2999999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F160">
-        <v>2.6099999999999999E-3</v>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="G160">
-        <v>3.4399999999999999E-3</v>
+        <v>1.234E-2</v>
       </c>
       <c r="H160">
-        <v>2.49E-3</v>
+        <v>7.2700000000000004E-3</v>
       </c>
       <c r="I160">
-        <v>5.0499999999999998E-3</v>
+        <v>1.2279999999999999E-2</v>
       </c>
       <c r="J160" t="b">
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B161">
-        <v>0.50585000000000002</v>
+        <v>0.51731000000000005</v>
       </c>
       <c r="C161">
-        <v>2.6099999999999999E-3</v>
+        <v>3.48E-3</v>
       </c>
       <c r="D161">
-        <v>1.5900000000000001E-3</v>
+        <v>4.4900000000000001E-3</v>
       </c>
       <c r="E161">
-        <v>2.6199999999999999E-3</v>
+        <v>2.9199999999999999E-3</v>
       </c>
       <c r="F161">
-        <v>4.0499999999999998E-3</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="G161">
-        <v>4.15E-3</v>
+        <v>1.3429999999999999E-2</v>
       </c>
       <c r="H161">
-        <v>3.5899999999999999E-3</v>
+        <v>7.3200000000000001E-3</v>
       </c>
       <c r="I161">
-        <v>5.3E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="J161" t="b">
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B162">
-        <v>0.50583999999999996</v>
+        <v>0.51439000000000001</v>
       </c>
       <c r="C162">
-        <v>2.32E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="D162">
-        <v>1.5900000000000001E-3</v>
+        <v>3.62E-3</v>
       </c>
       <c r="E162">
-        <v>1.3699999999999999E-3</v>
+        <v>2.81E-3</v>
       </c>
       <c r="F162">
-        <v>3.0799999999999998E-3</v>
+        <v>6.5900000000000004E-3</v>
       </c>
       <c r="G162">
-        <v>3.4399999999999999E-3</v>
+        <v>1.174E-2</v>
       </c>
       <c r="H162">
-        <v>2.7100000000000002E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="I162">
-        <v>6.7799999999999996E-3</v>
+        <v>1.0290000000000001E-2</v>
       </c>
       <c r="J162" t="b">
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B163">
-        <v>0.50580999999999998</v>
+        <v>0.51312999999999998</v>
       </c>
       <c r="C163">
-        <v>2.8999999999999998E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="D163">
-        <v>1.8799999999999999E-3</v>
+        <v>3.48E-3</v>
       </c>
       <c r="E163">
-        <v>1.7099999999999999E-3</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="F163">
-        <v>2.9199999999999999E-3</v>
+        <v>6.1199999999999996E-3</v>
       </c>
       <c r="G163">
-        <v>3.8500000000000001E-3</v>
+        <v>1.0540000000000001E-2</v>
       </c>
       <c r="H163">
-        <v>2.97E-3</v>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="I163">
-        <v>4.6499999999999996E-3</v>
+        <v>8.3199999999999993E-3</v>
       </c>
       <c r="J163" t="b">
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B164">
-        <v>0.50578000000000001</v>
+        <v>0.51446000000000003</v>
       </c>
       <c r="C164">
         <v>2.6099999999999999E-3</v>
       </c>
       <c r="D164">
-        <v>2.1700000000000001E-3</v>
+        <v>3.62E-3</v>
       </c>
       <c r="E164">
-        <v>1.7099999999999999E-3</v>
+        <v>2.5300000000000001E-3</v>
       </c>
       <c r="F164">
-        <v>2.6199999999999999E-3</v>
+        <v>4.9399999999999999E-3</v>
       </c>
       <c r="G164">
-        <v>3.3800000000000002E-3</v>
+        <v>1.174E-2</v>
       </c>
       <c r="H164">
-        <v>3.14E-3</v>
+        <v>5.8199999999999997E-3</v>
       </c>
       <c r="I164">
-        <v>7.4900000000000001E-3</v>
+        <v>7.1500000000000001E-3</v>
       </c>
       <c r="J164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B165">
-        <v>0.50568999999999997</v>
+        <v>0.51304000000000005</v>
       </c>
       <c r="C165">
-        <v>1.4499999999999999E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="D165">
-        <v>2.1700000000000001E-3</v>
+        <v>4.0600000000000002E-3</v>
       </c>
       <c r="E165">
-        <v>6.8999999999999997E-4</v>
+        <v>2.48E-3</v>
       </c>
       <c r="F165">
-        <v>6.3000000000000003E-4</v>
+        <v>4.5100000000000001E-3</v>
       </c>
       <c r="G165">
-        <v>3.3800000000000002E-3</v>
+        <v>9.1400000000000006E-3</v>
       </c>
       <c r="H165">
-        <v>1.9499999999999999E-3</v>
+        <v>5.8700000000000002E-3</v>
       </c>
       <c r="I165">
-        <v>2.9199999999999999E-3</v>
+        <v>1.116E-2</v>
       </c>
       <c r="J165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B166">
-        <v>0.50434999999999997</v>
+        <v>0.51690000000000003</v>
       </c>
       <c r="C166">
         <v>1.74E-3</v>
       </c>
       <c r="D166">
-        <v>1.5900000000000001E-3</v>
+        <v>4.4900000000000001E-3</v>
       </c>
       <c r="E166">
-        <v>5.4000000000000001E-4</v>
+        <v>2.3700000000000001E-3</v>
       </c>
       <c r="F166">
-        <v>9.5E-4</v>
+        <v>2.82E-3</v>
       </c>
       <c r="G166">
-        <v>1.2700000000000001E-3</v>
+        <v>1.3429999999999999E-2</v>
       </c>
       <c r="H166">
-        <v>1.5E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="I166">
-        <v>5.5999999999999999E-3</v>
+        <v>7.9100000000000004E-3</v>
       </c>
       <c r="J166" t="b">
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B167">
-        <v>0.50432999999999995</v>
+        <v>0.51144000000000001</v>
       </c>
       <c r="C167">
-        <v>1.74E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="D167">
-        <v>1.5900000000000001E-3</v>
+        <v>3.0400000000000002E-3</v>
       </c>
       <c r="E167">
-        <v>3.8999999999999999E-4</v>
+        <v>1.9499999999999999E-3</v>
       </c>
       <c r="F167">
-        <v>9.2000000000000003E-4</v>
+        <v>3.82E-3</v>
       </c>
       <c r="G167">
-        <v>1.2700000000000001E-3</v>
+        <v>1.093E-2</v>
       </c>
       <c r="H167">
-        <v>1.1999999999999999E-3</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="I167">
-        <v>2.7599999999999999E-3</v>
+        <v>6.8100000000000001E-3</v>
       </c>
       <c r="J167" t="b">
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B168">
-        <v>0.50432999999999995</v>
+        <v>0.50848000000000004</v>
       </c>
       <c r="C168">
-        <v>1.4499999999999999E-3</v>
+        <v>2.32E-3</v>
       </c>
       <c r="D168">
-        <v>1.5900000000000001E-3</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="E168">
-        <v>3.8999999999999999E-4</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="F168">
-        <v>4.8999999999999998E-4</v>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="G168">
-        <v>1.2700000000000001E-3</v>
+        <v>6.9800000000000001E-3</v>
       </c>
       <c r="H168">
-        <v>1.2800000000000001E-3</v>
+        <v>3.65E-3</v>
       </c>
       <c r="I168">
-        <v>4.6499999999999996E-3</v>
+        <v>6.6100000000000004E-3</v>
       </c>
       <c r="J168" t="b">
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="B169">
-        <v>0.50353999999999999</v>
+        <v>0.51334999999999997</v>
       </c>
       <c r="C169">
-        <v>1.4499999999999999E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="D169">
-        <v>1.01E-3</v>
+        <v>3.62E-3</v>
       </c>
       <c r="E169">
-        <v>3.1E-4</v>
+        <v>1.2899999999999999E-3</v>
       </c>
       <c r="F169">
-        <v>5.4000000000000001E-4</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="G169">
-        <v>6.3000000000000003E-4</v>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="H169">
-        <v>9.1E-4</v>
+        <v>3.79E-3</v>
       </c>
       <c r="I169">
-        <v>3.8600000000000001E-3</v>
+        <v>8.1200000000000005E-3</v>
       </c>
       <c r="J169" t="b">
         <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>95</v>
-      </c>
-      <c r="B170">
-        <v>0.50351999999999997</v>
-      </c>
-      <c r="C170">
-        <v>1.74E-3</v>
-      </c>
-      <c r="D170">
-        <v>1.01E-3</v>
-      </c>
-      <c r="E170">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F170">
-        <v>6.0999999999999997E-4</v>
-      </c>
-      <c r="G170">
-        <v>6.3000000000000003E-4</v>
-      </c>
-      <c r="H170">
-        <v>7.2999999999999996E-4</v>
-      </c>
-      <c r="I170">
-        <v>3.0899999999999999E-3</v>
-      </c>
-      <c r="J170" t="b">
-        <v>0</v>
-      </c>
-      <c r="K170" t="s">
-        <v>42</v>
+      <c r="A170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>66</v>
-      </c>
-      <c r="B171">
-        <v>0.50305999999999995</v>
-      </c>
-      <c r="C171">
-        <v>1.16E-3</v>
-      </c>
-      <c r="D171">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="E171">
-        <v>7.6999999999999996E-4</v>
-      </c>
-      <c r="F171">
-        <v>1.0300000000000001E-3</v>
-      </c>
-      <c r="G171">
-        <v>2.48E-3</v>
-      </c>
-      <c r="H171">
-        <v>1.58E-3</v>
-      </c>
-      <c r="I171">
-        <v>4.1099999999999999E-3</v>
-      </c>
-      <c r="J171" t="b">
-        <v>0</v>
-      </c>
-      <c r="K171" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>81</v>
-      </c>
-      <c r="B172">
-        <v>0.50241999999999998</v>
-      </c>
-      <c r="C172">
-        <v>1.16E-3</v>
-      </c>
-      <c r="D172">
-        <v>5.8E-4</v>
-      </c>
-      <c r="E172">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="F172">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="G172">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H172">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="I172">
-        <v>4.3499999999999997E-3</v>
-      </c>
-      <c r="J172" t="b">
-        <v>0</v>
-      </c>
-      <c r="K172" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>82</v>
-      </c>
-      <c r="B173">
-        <v>0.50234000000000001</v>
-      </c>
-      <c r="C173">
-        <v>2.9E-4</v>
-      </c>
-      <c r="D173">
-        <v>5.8E-4</v>
-      </c>
-      <c r="E173">
-        <v>1.1E-4</v>
-      </c>
-      <c r="F173">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="G173">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H173">
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="I173">
-        <v>2E-3</v>
-      </c>
-      <c r="J173" t="b">
-        <v>0</v>
-      </c>
-      <c r="K173" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>67</v>
-      </c>
-      <c r="B174">
-        <v>0.50175000000000003</v>
-      </c>
-      <c r="C174">
-        <v>1.16E-3</v>
-      </c>
-      <c r="D174">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="E174">
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="F174">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="G174">
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="H174">
-        <v>6.4000000000000005E-4</v>
-      </c>
-      <c r="I174">
-        <v>3.3800000000000002E-3</v>
-      </c>
-      <c r="J174" t="b">
-        <v>0</v>
-      </c>
-      <c r="K174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>68</v>
-      </c>
-      <c r="B175">
-        <v>0.50173999999999996</v>
-      </c>
-      <c r="C175">
-        <v>1.16E-3</v>
-      </c>
-      <c r="D175">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="E175">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="F175">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="G175">
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="H175">
-        <v>6.8999999999999997E-4</v>
-      </c>
-      <c r="I175">
-        <v>3.62E-3</v>
-      </c>
-      <c r="J175" t="b">
-        <v>0</v>
-      </c>
-      <c r="K175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
-      <c r="L176" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3" t="s">
-        <v>152</v>
+      <c r="A171" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L165" xr:uid="{39FFEBCD-87A3-44DC-90BD-E456A2A95B35}">
-    <sortState ref="A2:L177">
-      <sortCondition descending="1" ref="B1:B165"/>
+  <autoFilter ref="A1:L4" xr:uid="{39FFEBCD-87A3-44DC-90BD-E456A2A95B35}">
+    <sortState ref="A2:L171">
+      <sortCondition descending="1" ref="E1:E4"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:L177">
+  <sortState ref="A2:L16">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
